--- a/AAII_Financials/Quarterly/OPRA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OPRA_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="92">
   <si>
     <t>OPRA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>129600</v>
+      </c>
+      <c r="E8" s="3">
         <v>93700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>61700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>49800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>48300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>44700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>39800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>39400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>134400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>43500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>26500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>25500</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E9" s="3">
         <v>15000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
-      </c>
-      <c r="M9" s="3">
-        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
+      <c r="O9" s="3">
+        <v>100</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>88500</v>
+      </c>
+      <c r="E10" s="3">
         <v>78700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>51600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>42000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>42600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>39200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>38400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>38700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>133100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>43100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>26400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>25400</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,13 +985,16 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -983,8 +1002,8 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -996,69 +1015,75 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>3200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1700</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E15" s="3">
         <v>4500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>3400</v>
       </c>
       <c r="J15" s="3">
         <v>3400</v>
       </c>
       <c r="K15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L15" s="3">
         <v>16600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>5000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3800</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>116900</v>
+      </c>
+      <c r="E17" s="3">
         <v>87000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>64500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>45800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>35100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>32800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>29400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>29700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>124100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>32800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>29000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>24700</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E18" s="3">
         <v>6700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>13200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>11900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>800</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1210,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E20" s="3">
         <v>23100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E21" s="3">
         <v>30000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>21700</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>12300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>24100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>3900</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1349,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E23" s="3">
         <v>29800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>12100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>10700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>9900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E24" s="3">
         <v>1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E26" s="3">
         <v>28100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>11400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>7400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E27" s="3">
         <v>28100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>11400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-23100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E33" s="3">
         <v>28100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>11400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E35" s="3">
         <v>28100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>11400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,35 +2052,36 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>139500</v>
+      </c>
+      <c r="E41" s="3">
         <v>170700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>134200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>169800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>177900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>217600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>44000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>39300</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2011,34 +2097,37 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E42" s="3">
         <v>45300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>16900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>7400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1300</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2055,35 +2144,38 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>201600</v>
+      </c>
+      <c r="E43" s="3">
         <v>107400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>67100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>52400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>44600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>53200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>44600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>38800</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,17 +2191,20 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E44" s="3">
         <v>1900</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2220,8 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2143,35 +2238,38 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E45" s="3">
         <v>26900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>24000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2500</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,35 +2285,38 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>418300</v>
+      </c>
+      <c r="E46" s="3">
         <v>352200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>242200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>240900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>238100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>273500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>91600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>80700</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2231,35 +2332,38 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>77700</v>
+      </c>
+      <c r="E47" s="3">
         <v>70200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>47000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>38900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>37100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>7700</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2275,35 +2379,38 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E48" s="3">
         <v>27700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>27400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>26300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12900</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2319,35 +2426,38 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>532400</v>
+      </c>
+      <c r="E49" s="3">
         <v>533900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>535100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>536100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>537000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>538000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>538700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>539600</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,25 +2567,28 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="D52" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3">
         <v>700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>900</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1100</v>
       </c>
       <c r="I52" s="3">
         <v>1100</v>
@@ -2477,8 +2596,8 @@
       <c r="J52" s="3">
         <v>1100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>1100</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,35 +2661,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1060600</v>
+      </c>
+      <c r="E54" s="3">
         <v>984000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>852300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>842800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>825300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>829600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>651500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>642000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,34 +2748,35 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>57100</v>
+      </c>
+      <c r="E57" s="3">
         <v>41500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>32200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>23800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>18000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>23500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>21800</v>
       </c>
       <c r="J57" s="3">
         <v>21800</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3">
+        <v>21800</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
@@ -2663,35 +2793,38 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E58" s="3">
         <v>26500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2707,35 +2840,38 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E59" s="3">
         <v>14300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10300</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,35 +2887,38 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>128600</v>
+      </c>
+      <c r="E60" s="3">
         <v>82300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>48700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>40500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>34000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>34600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>35000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>35200</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,35 +2934,38 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E61" s="3">
         <v>9800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>12000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2100</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2839,35 +2981,38 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E62" s="3">
         <v>13800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,35 +3169,38 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>148400</v>
+      </c>
+      <c r="E66" s="3">
         <v>105900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>72700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>67000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>49800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>52600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>52900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>50700</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3059,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,35 +3423,38 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>99500</v>
+      </c>
+      <c r="E72" s="3">
         <v>76000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>46500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>43000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>36400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>33100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>21700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12700</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3297,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,35 +3611,38 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>912200</v>
+      </c>
+      <c r="E76" s="3">
         <v>878200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>779600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>775900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>775500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>777000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>598600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>591300</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E81" s="3">
         <v>28100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>11400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3651,15 +3849,15 @@
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
         <v>3400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>16600</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,38 +4105,41 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-17500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-16000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>12100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>10800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11700</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3936,8 +4152,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3977,15 +4197,15 @@
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3500</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,38 +4312,41 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-35300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-17800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-43500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,38 +4566,41 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E100" s="3">
         <v>90200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-8200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>169500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-10000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4368,38 +4613,41 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-200</v>
       </c>
       <c r="H101" s="3">
         <v>-200</v>
       </c>
       <c r="I101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4412,38 +4660,41 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="E102" s="3">
         <v>36500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-35700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-39800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>173600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4454,6 +4705,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OPRA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OPRA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="92">
   <si>
     <t>OPRA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>138200</v>
+      </c>
+      <c r="E8" s="3">
         <v>129600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>93700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>61700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>49800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>48300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>44700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>39800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>39400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>134400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>43500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>26500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>25500</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E9" s="3">
         <v>41100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>400</v>
-      </c>
-      <c r="N9" s="3">
-        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
+      <c r="P9" s="3">
+        <v>100</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>110600</v>
+      </c>
+      <c r="E10" s="3">
         <v>88500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>78700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>51600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>42000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>42600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>39200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>38400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>38700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>133100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>43100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>26400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>25400</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,16 +1005,19 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+        <v>2100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -1005,8 +1025,8 @@
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1018,72 +1038,78 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>3200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1700</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E15" s="3">
         <v>6000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>3400</v>
       </c>
       <c r="K15" s="3">
         <v>3400</v>
       </c>
       <c r="L15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M15" s="3">
         <v>16600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3800</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>154100</v>
+      </c>
+      <c r="E17" s="3">
         <v>116900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>87000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>64500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>45800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>35100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>32800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>29400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>29700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>124100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>32800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>29000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>24700</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E18" s="3">
         <v>12700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>13200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>11900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>800</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,102 +1244,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E20" s="3">
         <v>13900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>23100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-700</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E21" s="3">
         <v>28100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>30000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>21700</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>12300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>24100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>3900</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,102 +1392,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="E23" s="3">
         <v>26600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>29800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>12100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>10700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E24" s="3">
         <v>4600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E26" s="3">
         <v>22000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>28100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>11400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E27" s="3">
         <v>22000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>28100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>11400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-13900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-23100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>700</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E33" s="3">
         <v>22000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>28100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>11400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E35" s="3">
         <v>22000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>28100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>11400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,38 +2139,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>169800</v>
+      </c>
+      <c r="E41" s="3">
         <v>139500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>170700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>134200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>169800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>177900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>217600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>44000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>39300</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,37 +2187,40 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E42" s="3">
         <v>43700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>45300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>16900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>7400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1300</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2147,38 +2237,41 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>148100</v>
+      </c>
+      <c r="E43" s="3">
         <v>201600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>107400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>67100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>52400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>44600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>53200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>44600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>38800</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,20 +2287,23 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E44" s="3">
         <v>7800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1900</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2223,8 +2319,8 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2241,38 +2337,41 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E45" s="3">
         <v>25800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>26900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>24000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2500</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,38 +2387,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>409100</v>
+      </c>
+      <c r="E46" s="3">
         <v>418300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>352200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>242200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>240900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>238100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>273500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>91600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>80700</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,38 +2437,41 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>78300</v>
+      </c>
+      <c r="E47" s="3">
         <v>77700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>70200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>47000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>38900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>37100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7700</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2382,38 +2487,41 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E48" s="3">
         <v>26100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>27700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>27400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>26300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12900</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2429,38 +2537,41 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>537700</v>
+      </c>
+      <c r="E49" s="3">
         <v>532400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>533900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>535100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>536100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>537000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>538000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>538700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>539600</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,28 +2687,31 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E52" s="3">
         <v>6200</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3">
         <v>700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1100</v>
       </c>
       <c r="J52" s="3">
         <v>1100</v>
@@ -2599,8 +2719,8 @@
       <c r="K52" s="3">
         <v>1100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="L52" s="3">
+        <v>1100</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,38 +2787,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1054800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1060600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>984000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>852300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>842800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>825300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>829600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>651500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>642000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,37 +2879,38 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>66200</v>
+      </c>
+      <c r="E57" s="3">
         <v>57100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>41500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>32200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>23800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>18000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>23500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>21800</v>
       </c>
       <c r="K57" s="3">
         <v>21800</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
+      <c r="L57" s="3">
+        <v>21800</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
@@ -2796,38 +2927,41 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E58" s="3">
         <v>47800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>26500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2843,38 +2977,41 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E59" s="3">
         <v>23700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10300</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,38 +3027,41 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>147900</v>
+      </c>
+      <c r="E60" s="3">
         <v>128600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>82300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>48700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>40500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>34000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>34600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>35000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>35200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2937,38 +3077,41 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E61" s="3">
         <v>9200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>10100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>12000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2100</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2984,38 +3127,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E62" s="3">
         <v>10700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>15300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,38 +3327,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>170600</v>
+      </c>
+      <c r="E66" s="3">
         <v>148400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>105900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>72700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>67000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>49800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>52600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>52900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>50700</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,38 +3597,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>79600</v>
+      </c>
+      <c r="E72" s="3">
         <v>99500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>76000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>46500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>43000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>36400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>33100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>21700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,38 +3797,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>884200</v>
+      </c>
+      <c r="E76" s="3">
         <v>912200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>878200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>779600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>775900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>775500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>777000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>598600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>591300</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E81" s="3">
         <v>22000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>28100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>11400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,13 +4024,14 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>4700</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>3</v>
@@ -3852,15 +4051,15 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
         <v>3400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>16600</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,41 +4322,44 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-20000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-17500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-16000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>12100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>10800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11700</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4155,8 +4372,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,13 +4394,14 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-1400</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>3</v>
@@ -4200,15 +4421,15 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3500</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,41 +4542,44 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-44200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-35300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-17800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-43500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,41 +4812,44 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E100" s="3">
         <v>32200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>90200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>169500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-10000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4616,41 +4862,44 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-200</v>
       </c>
       <c r="I101" s="3">
         <v>-200</v>
       </c>
       <c r="J101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>700</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4663,41 +4912,44 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-31200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>36500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-35700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-39800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>173600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1000</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4708,6 +4960,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OPRA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OPRA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="92">
   <si>
     <t>OPRA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,257 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>78400</v>
+      </c>
+      <c r="F8" s="3">
         <v>138200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>129600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>93700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>61700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>49800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>48300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>44700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>39800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>39400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>134400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>43500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>26500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>25500</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F9" s="3">
         <v>27600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>41100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>15000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>10100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>7800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>5700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>5500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>100</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>71900</v>
+      </c>
+      <c r="F10" s="3">
         <v>110600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>88500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>78700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>51600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>42000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>42600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>39200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>38400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>38700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>133100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>43100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>26400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>25400</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +986,14 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,31 +1042,37 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F14" s="3">
         <v>2100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1041,75 +1081,87 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>3200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>1700</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E15" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F15" s="3">
         <v>4700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>6000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>4500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>4300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>4100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>2900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>3100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>3400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>3400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>16600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>5000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>3600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>3800</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1177,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>86200</v>
+      </c>
+      <c r="F17" s="3">
         <v>154100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>116900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>87000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>64500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>45800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>35100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>32800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>29400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>29700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>124100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>32800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>29000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>24700</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-15900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>12700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>6700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>4000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>13200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>11900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>10400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>9700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>10300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>10700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>800</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1311,122 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-8900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>13900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>23100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>5200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-2800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-20100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>28100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>30000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>2500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>8800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>21700</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>12300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>24100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>3900</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1475,126 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-24800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>26600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>29800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>4700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>12100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>10700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>9900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>8900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>7500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>9100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F24" s="3">
         <v>-4000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>4600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>2300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-20900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>22000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>28100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>3400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>4400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>11400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>9700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>7400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>6600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>6100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>7500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-20900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>22000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>28100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>3400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>4400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>11400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>9700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>7400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>6600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>6100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>7500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,31 +1811,37 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>148100</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-4100</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1745,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1979,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="F32" s="3">
         <v>8900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-13900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-23100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-5200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>2800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>154400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-20900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>22000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>28100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>3400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>4400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>11400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>9700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>7400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>6600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>6100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>7500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>154400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-20900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>22000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>28100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>3400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>4400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>11400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>9700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>7400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>6600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>6100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>7500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,44 +2312,46 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>105500</v>
+      </c>
+      <c r="F41" s="3">
         <v>169800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>139500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>170700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>134200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>169800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>177900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>217600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>44000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>39300</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,43 +2364,49 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E42" s="3">
+        <v>56500</v>
+      </c>
+      <c r="F42" s="3">
         <v>49000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>43700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>45300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>16900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>7400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>1300</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2240,44 +2420,50 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>116900</v>
+      </c>
+      <c r="F43" s="3">
         <v>148100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>201600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>107400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>67100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>52400</v>
-      </c>
-      <c r="I43" s="3">
-        <v>44600</v>
-      </c>
-      <c r="J43" s="3">
-        <v>53200</v>
       </c>
       <c r="K43" s="3">
         <v>44600</v>
       </c>
       <c r="L43" s="3">
+        <v>53200</v>
+      </c>
+      <c r="M43" s="3">
+        <v>44600</v>
+      </c>
+      <c r="N43" s="3">
         <v>38800</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2290,26 +2476,32 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>200</v>
+      </c>
+      <c r="F44" s="3">
         <v>7300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>7800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1900</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2322,11 +2514,11 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2340,44 +2532,50 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>28200</v>
+      </c>
+      <c r="F45" s="3">
         <v>34900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>25800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>26900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>24000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>11300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>14400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2500</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2390,44 +2588,50 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>176300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>307200</v>
+      </c>
+      <c r="F46" s="3">
         <v>409100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>418300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>352200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>242200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>240900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>238100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>273500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>91600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>80700</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2440,44 +2644,50 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>349300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>84000</v>
+      </c>
+      <c r="F47" s="3">
         <v>78300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>77700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>70200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>47000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>38900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>37100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>4600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>6800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>7700</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,44 +2700,50 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>23300</v>
+      </c>
+      <c r="F48" s="3">
         <v>25000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>26100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>27700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>27400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>26300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>12200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>12400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>13200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>12900</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2540,44 +2756,50 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>539500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>539000</v>
+      </c>
+      <c r="F49" s="3">
         <v>537700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>532400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>533900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>535100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>536100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>537000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>538000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>538700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>539600</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2590,8 +2812,14 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,43 +2924,49 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F52" s="3">
         <v>4700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>6200</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3">
         <v>700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>900</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1100</v>
       </c>
       <c r="L52" s="3">
         <v>1100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
+      <c r="M52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N52" s="3">
+        <v>1100</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
@@ -2740,8 +2980,14 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,44 +3036,50 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1088700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>963600</v>
+      </c>
+      <c r="F54" s="3">
         <v>1054800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1060600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>984000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>852300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>842800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>825300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>829600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>651500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>642000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2840,8 +3092,14 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,44 +3140,46 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>28800</v>
+      </c>
+      <c r="F57" s="3">
         <v>66200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>57100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>41500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>32200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>23800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>18000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>23500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>21800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>21800</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2930,44 +3192,50 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F58" s="3">
         <v>48400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>47800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>26500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>7000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>6400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2980,44 +3248,50 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>21500</v>
+      </c>
+      <c r="F59" s="3">
         <v>33300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>23700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>14300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>9500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>10300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>13600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>8900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>10600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>10300</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,44 +3304,50 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>54300</v>
+      </c>
+      <c r="F60" s="3">
         <v>147900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>128600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>82300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>48700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>40500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>34000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>34600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>35000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>35200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3080,44 +3360,50 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F61" s="3">
         <v>9700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>9200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>9800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>10100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>12000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3130,44 +3416,50 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F62" s="3">
         <v>12900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>10700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>13800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>14000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>14500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>13600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>15300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>14600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>13400</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3180,8 +3472,14 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,44 +3640,50 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>60900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>72700</v>
+      </c>
+      <c r="F66" s="3">
         <v>170600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>148400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>105900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>72700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>67000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>49800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>52600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>52900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>50700</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3380,8 +3696,14 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,44 +3942,50 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>253800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>98000</v>
+      </c>
+      <c r="F72" s="3">
         <v>79600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>99500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>76000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>46500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>43000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>36400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>33100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>21700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>12700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,8 +3998,14 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,44 +4166,50 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1027800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>890900</v>
+      </c>
+      <c r="F76" s="3">
         <v>884200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>912200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>878200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>779600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>775900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>775500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>777000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>598600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>591300</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3850,8 +4222,14 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>154400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-20900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>22000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>28100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>3400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>4400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>11400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>9700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>7400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>6600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>6100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>7500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,20 +4421,22 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F83" s="3">
         <v>4700</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4054,18 +4452,18 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
         <v>3400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>16600</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4075,8 +4473,14 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,47 +4753,53 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-95600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>171400</v>
+      </c>
+      <c r="F89" s="3">
         <v>51400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-20000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-17500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-16000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>9100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>12100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>6800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>10800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>4100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>11700</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4375,8 +4809,14 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,20 +4835,22 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1400</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4424,18 +4866,18 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3500</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4445,8 +4887,14 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,47 +4999,53 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-15200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-44200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-35300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-17800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-9700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-43500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-3700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>2500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3300</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4595,8 +5055,14 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,47 +5301,53 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-68700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-5700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>32200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>90200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-7500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-8200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>169500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-10000</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4865,47 +5357,53 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-800</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H101" s="3">
-        <v>100</v>
       </c>
       <c r="I101" s="3">
         <v>-200</v>
       </c>
       <c r="J101" s="3">
+        <v>100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>700</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4915,47 +5413,53 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-154000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>78900</v>
+      </c>
+      <c r="F102" s="3">
         <v>30300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-31200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>36500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-35700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-8000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-39800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>173600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>4700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>6100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4963,6 +5467,12 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OPRA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OPRA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
   <si>
     <t>OPRA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>54400</v>
+      </c>
+      <c r="E8" s="3">
         <v>42000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>78400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>138200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>129600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>93700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>61700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>49800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>48300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>44700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>39800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>39400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>134400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>43500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>26500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>25500</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E9" s="3">
         <v>2900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>27600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>41100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>15000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>400</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>100</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
+      <c r="S9" s="3">
+        <v>100</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E10" s="3">
         <v>39100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>71900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>110600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>88500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>78700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>51600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>42000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>42600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>39200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>38400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>38700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>133100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>43100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>26400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>25400</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,25 +1064,28 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E14" s="3">
         <v>600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -1074,8 +1093,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1087,81 +1106,87 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>3200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1700</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E15" s="3">
         <v>4900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>9400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>6000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3100</v>
-      </c>
-      <c r="M15" s="3">
-        <v>3400</v>
       </c>
       <c r="N15" s="3">
         <v>3400</v>
       </c>
       <c r="O15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P15" s="3">
         <v>16600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>5000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3800</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E17" s="3">
         <v>39000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>86200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>154100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>116900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>87000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>64500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>45800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>35100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>32800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>29400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>29700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>124100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>32800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>29000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>24700</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-15900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>12700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>800</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1345,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E20" s="3">
         <v>4500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-8900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>13900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>23100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-700</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E21" s="3">
         <v>12500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>9300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-20100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>28100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>30000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>21700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>12300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>24100</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
         <v>3900</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1520,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E23" s="3">
         <v>7500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-24800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>26600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>29800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>9100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>100</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E26" s="3">
         <v>6300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-20900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>22000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>28100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>11400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E27" s="3">
         <v>6300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-20900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>22000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>28100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>11400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,20 +1874,23 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E29" s="3">
         <v>148100</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-4100</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1843,8 +1903,8 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>8900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-13900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-23100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>700</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E33" s="3">
         <v>154400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-20900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>22000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>28100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>11400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E35" s="3">
         <v>154400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-20900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>22000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>28100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>11400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,47 +2399,48 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>134200</v>
+      </c>
+      <c r="E41" s="3">
         <v>64400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>105500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>169800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>139500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>170700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>134200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>169800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>177900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>217600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>44000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>39300</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,46 +2456,49 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>900</v>
+      </c>
+      <c r="E42" s="3">
         <v>55200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>56500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>49000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>43700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>45300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>16900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>7400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1300</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2426,47 +2515,50 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E43" s="3">
         <v>42800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>116900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>148100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>201600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>107400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>67100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>52400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>44600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>53200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>44600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>38800</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2482,29 +2574,32 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
         <v>200</v>
       </c>
       <c r="F44" s="3">
+        <v>200</v>
+      </c>
+      <c r="G44" s="3">
         <v>7300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>7800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1900</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2520,8 +2615,8 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2538,47 +2633,50 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E45" s="3">
         <v>13700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>28200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>34900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>25800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>26900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>24000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2500</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2594,47 +2692,50 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>187500</v>
+      </c>
+      <c r="E46" s="3">
         <v>176300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>307200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>409100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>418300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>352200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>242200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>240900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>238100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>273500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>91600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>80700</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,47 +2751,50 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>361100</v>
+      </c>
+      <c r="E47" s="3">
         <v>349300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>84000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>78300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>77700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>70200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>47000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>38900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>37100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7700</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2706,47 +2810,50 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E48" s="3">
         <v>19600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>23300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>25000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>26100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>27700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>27400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>26300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12900</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2762,47 +2869,50 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>536900</v>
+      </c>
+      <c r="E49" s="3">
         <v>539500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>539000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>537700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>532400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>533900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>535100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>536100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>537000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>538000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>538700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>539600</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,37 +3046,40 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3">
         <v>700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>900</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1100</v>
       </c>
       <c r="M52" s="3">
         <v>1100</v>
@@ -2968,8 +3087,8 @@
       <c r="N52" s="3">
         <v>1100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
+      <c r="O52" s="3">
+        <v>1100</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,47 +3164,50 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1107700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1088700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>963600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1054800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1060600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>984000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>852300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>842800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>825300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>829600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>651500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>642000</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3098,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,46 +3271,47 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E57" s="3">
         <v>26100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>28800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>66200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>57100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>41500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>32200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>23800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>23500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>21800</v>
       </c>
       <c r="N57" s="3">
         <v>21800</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
+      <c r="O57" s="3">
+        <v>21800</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
@@ -3198,47 +3328,50 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E58" s="3">
         <v>5200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>48400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>47800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>26500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3254,47 +3387,50 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E59" s="3">
         <v>12600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>33300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>23700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10300</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3310,47 +3446,50 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E60" s="3">
         <v>43900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>54300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>147900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>128600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>82300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>48700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>40500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>34000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>34600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>35000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>35200</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3366,47 +3505,50 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E61" s="3">
         <v>3900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>10100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>12000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2100</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3422,47 +3564,50 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E62" s="3">
         <v>13100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>12900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13400</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3800,11 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3655,38 +3812,38 @@
         <v>60900</v>
       </c>
       <c r="E66" s="3">
+        <v>60900</v>
+      </c>
+      <c r="F66" s="3">
         <v>72700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>170600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>148400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>105900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>72700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>67000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>49800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>52600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>52900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>50700</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3702,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,47 +4118,50 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>280200</v>
+      </c>
+      <c r="E72" s="3">
         <v>253800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>98000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>79600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>99500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>76000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>46500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>43000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>36400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>33100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>21700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12700</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,47 +4354,50 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1046700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1027800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>890900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>884200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>912200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>878200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>779600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>775900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>775500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>777000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>598600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>591300</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4228,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E81" s="3">
         <v>154400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-20900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>22000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>28100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>11400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,23 +4620,24 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E83" s="3">
         <v>5000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4700</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4458,15 +4656,15 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3">
         <v>3400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>16600</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,50 +4972,53 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-95600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>171400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>51400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-20000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-17500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-16000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>10800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>11700</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,23 +5056,24 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1400</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4872,15 +5092,15 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3500</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,50 +5231,53 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-35800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-21400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-44200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-35300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-17800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-43500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3300</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,50 +5549,53 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-23900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-68700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>32200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>90200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>169500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-10000</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5363,50 +5608,53 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>500</v>
+      </c>
+      <c r="E101" s="3">
         <v>1300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-200</v>
       </c>
       <c r="L101" s="3">
         <v>-200</v>
       </c>
       <c r="M101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>700</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5419,50 +5667,53 @@
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-154000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>78900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>30300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-31200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>36500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-35700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-39800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>173600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1000</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5473,6 +5724,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OPRA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OPRA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E8" s="3">
         <v>54400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>42000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>78400</v>
       </c>
-      <c r="G8" s="3">
-        <v>138200</v>
-      </c>
       <c r="H8" s="3">
+        <v>40200</v>
+      </c>
+      <c r="I8" s="3">
         <v>129600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>93700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>61700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>49800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>48300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>44700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>39800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>39400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>134400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>43500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>26500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>25500</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E9" s="3">
         <v>2700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6500</v>
       </c>
-      <c r="G9" s="3">
-        <v>27600</v>
-      </c>
       <c r="H9" s="3">
+        <v>29300</v>
+      </c>
+      <c r="I9" s="3">
         <v>41100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>15000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>400</v>
-      </c>
-      <c r="R9" s="3">
-        <v>100</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
+      <c r="T9" s="3">
+        <v>100</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E10" s="3">
         <v>51700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>39100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>71900</v>
       </c>
-      <c r="G10" s="3">
-        <v>110600</v>
-      </c>
       <c r="H10" s="3">
+        <v>10900</v>
+      </c>
+      <c r="I10" s="3">
         <v>88500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>78700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>51600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>42000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>42600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>39200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>38400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>38700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>133100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>43100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>26400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>25400</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,28 +1084,31 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>3300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -1096,8 +1116,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1109,84 +1129,90 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>3200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1700</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E15" s="3">
         <v>5900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>9400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>6000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3100</v>
-      </c>
-      <c r="N15" s="3">
-        <v>3400</v>
       </c>
       <c r="O15" s="3">
         <v>3400</v>
       </c>
       <c r="P15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Q15" s="3">
         <v>16600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>5000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3800</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E17" s="3">
         <v>46400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>39000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>86200</v>
       </c>
-      <c r="G17" s="3">
-        <v>154100</v>
-      </c>
       <c r="H17" s="3">
+        <v>47700</v>
+      </c>
+      <c r="I17" s="3">
         <v>116900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>87000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>64500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>45800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>35100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>32800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>29400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>29700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>124100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>32800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>29000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>24700</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E18" s="3">
         <v>8000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7800</v>
       </c>
-      <c r="G18" s="3">
-        <v>-15900</v>
-      </c>
       <c r="H18" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="I18" s="3">
         <v>12700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>13200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>11900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>800</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E20" s="3">
         <v>19700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7500</v>
       </c>
-      <c r="G20" s="3">
-        <v>-8900</v>
-      </c>
       <c r="H20" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="I20" s="3">
         <v>13900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>23100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-700</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E21" s="3">
         <v>33600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9300</v>
       </c>
-      <c r="G21" s="3">
-        <v>-20100</v>
-      </c>
       <c r="H21" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="I21" s="3">
         <v>28100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>30000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>21700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>12300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>24100</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
         <v>3900</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,126 +1563,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>27700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-24800</v>
-      </c>
       <c r="H23" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="I23" s="3">
         <v>26600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>29800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>10700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>100</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-700</v>
       </c>
-      <c r="G24" s="3">
-        <v>-4000</v>
-      </c>
       <c r="H24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I24" s="3">
         <v>4600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>600</v>
+      </c>
+      <c r="E26" s="3">
         <v>27700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
-        <v>-20900</v>
-      </c>
       <c r="H26" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="I26" s="3">
         <v>22000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>28100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>11400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="3">
         <v>27700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
-        <v>-20900</v>
-      </c>
       <c r="H27" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="I27" s="3">
         <v>22000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>28100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>11400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,25 +1935,28 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-2300</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>148100</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-4100</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
+      <c r="H29" s="3">
+        <v>-4900</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
@@ -1906,8 +1967,8 @@
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-19700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7500</v>
       </c>
-      <c r="G32" s="3">
-        <v>8900</v>
-      </c>
       <c r="H32" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I32" s="3">
         <v>-13900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-23100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>700</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
         <v>25400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>154400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-20900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>22000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>28100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>11400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
         <v>25400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>154400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-20900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>22000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>28100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>11400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,50 +2486,51 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>143300</v>
+      </c>
+      <c r="E41" s="3">
         <v>134200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>64400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>105500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>169800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>139500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>170700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>134200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>169800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>177900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>217600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>44000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>39300</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2459,49 +2546,52 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>55200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>56500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>49000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>43700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>45300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>16900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1300</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2518,50 +2608,53 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E43" s="3">
         <v>43400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>42800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>116900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>148100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>201600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>107400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>67100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>52400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>44600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>53200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>44600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>38800</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2586,23 +2682,23 @@
         <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
         <v>200</v>
       </c>
       <c r="G44" s="3">
+        <v>200</v>
+      </c>
+      <c r="H44" s="3">
         <v>7300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>7800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1900</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2618,8 +2714,8 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -2636,50 +2732,53 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E45" s="3">
         <v>9100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>28200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>34900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>25800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>26900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>24000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2500</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2695,50 +2794,53 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>188900</v>
+      </c>
+      <c r="E46" s="3">
         <v>187500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>176300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>307200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>409100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>418300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>352200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>242200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>240900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>238100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>273500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>91600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>80700</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2754,50 +2856,53 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>371800</v>
+      </c>
+      <c r="E47" s="3">
         <v>361100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>349300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>84000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>78300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>77700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>70200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>47000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>38900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>37100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7700</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2813,50 +2918,53 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E48" s="3">
         <v>18200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>19600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>23300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>25000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>26100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>27700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>27400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>26300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12900</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2872,50 +2980,53 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>545200</v>
+      </c>
+      <c r="E49" s="3">
         <v>536900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>539500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>539000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>537700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>532400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>533900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>535100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>536100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>537000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>538000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>538700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>539600</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,40 +3166,43 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E52" s="3">
         <v>4000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
         <v>700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>900</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1100</v>
       </c>
       <c r="N52" s="3">
         <v>1100</v>
@@ -3090,8 +3210,8 @@
       <c r="O52" s="3">
         <v>1100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
+      <c r="P52" s="3">
+        <v>1100</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,50 +3290,53 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1126500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1107700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1088700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>963600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1054800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1060600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>984000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>852300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>842800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>825300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>829600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>651500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>642000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,49 +3402,50 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E57" s="3">
         <v>25500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>26100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>28800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>66200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>57100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>41500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>32200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>23800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>23500</v>
-      </c>
-      <c r="N57" s="3">
-        <v>21800</v>
       </c>
       <c r="O57" s="3">
         <v>21800</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
+      <c r="P57" s="3">
+        <v>21800</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
@@ -3331,50 +3462,53 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E58" s="3">
         <v>5400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>48400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>47800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>26500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3390,50 +3524,53 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E59" s="3">
         <v>14700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>33300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>23700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10300</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3449,50 +3586,53 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>57500</v>
+      </c>
+      <c r="E60" s="3">
         <v>45500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>43900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>54300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>147900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>128600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>82300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>48700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>40500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>34000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>34600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>35000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>35200</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3508,50 +3648,53 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E61" s="3">
         <v>3600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2100</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3567,50 +3710,53 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E62" s="3">
         <v>11800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>12900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13400</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,50 +3958,53 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>60900</v>
+        <v>73400</v>
       </c>
       <c r="E66" s="3">
         <v>60900</v>
       </c>
       <c r="F66" s="3">
+        <v>60900</v>
+      </c>
+      <c r="G66" s="3">
         <v>72700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>170600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>148400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>105900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>72700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>67000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>49800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>52600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>52900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>50700</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,50 +4292,53 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>288600</v>
+      </c>
+      <c r="E72" s="3">
         <v>280200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>253800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>98000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>79600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>99500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>76000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>46500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>43000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>36400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>33100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>21700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12700</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,50 +4540,53 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1053000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1046700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1027800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>890900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>884200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>912200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>878200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>779600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>775900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>775500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>777000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>598600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>591300</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4416,8 +4602,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
         <v>25400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>154400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-20900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>22000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>28100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>11400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,26 +4819,27 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E83" s="3">
         <v>5900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4700</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4659,15 +4858,15 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3">
         <v>3400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>16600</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,53 +5189,56 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E89" s="3">
         <v>17500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-95600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>171400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>51400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-20000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-17500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-16000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>10800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>11700</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,26 +5277,27 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1400</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5095,15 +5316,15 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3">
         <v>-1300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,53 +5461,56 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E94" s="3">
         <v>60200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-35800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-21400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-44200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-35300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-17800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-43500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,53 +5795,56 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-23900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-68700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>32200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>90200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>169500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5611,53 +5857,56 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-200</v>
       </c>
       <c r="M101" s="3">
         <v>-200</v>
       </c>
       <c r="N101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>700</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5670,53 +5919,56 @@
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E102" s="3">
         <v>69800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-154000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>78900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>30300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-31200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>36500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-35700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-39800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>173600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5727,6 +5979,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OPRA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OPRA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>60300</v>
+      </c>
+      <c r="E8" s="3">
         <v>51600</v>
       </c>
-      <c r="E8" s="3">
-        <v>54400</v>
-      </c>
       <c r="F8" s="3">
+        <v>56200</v>
+      </c>
+      <c r="G8" s="3">
         <v>42000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>78400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>40200</v>
       </c>
-      <c r="I8" s="3">
-        <v>129600</v>
-      </c>
       <c r="J8" s="3">
+        <v>48800</v>
+      </c>
+      <c r="K8" s="3">
         <v>93700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>61700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>49800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>48300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>44700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>39800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>39400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>134400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>43500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>26500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>25500</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E9" s="3">
         <v>2200</v>
       </c>
-      <c r="E9" s="3">
-        <v>2700</v>
-      </c>
       <c r="F9" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G9" s="3">
         <v>2900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>29300</v>
       </c>
-      <c r="I9" s="3">
-        <v>41100</v>
-      </c>
       <c r="J9" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="K9" s="3">
         <v>15000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>400</v>
-      </c>
-      <c r="S9" s="3">
-        <v>100</v>
       </c>
       <c r="T9" s="3">
         <v>100</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>3</v>
+      <c r="U9" s="3">
+        <v>100</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>57600</v>
+      </c>
+      <c r="E10" s="3">
         <v>49400</v>
       </c>
-      <c r="E10" s="3">
-        <v>51700</v>
-      </c>
       <c r="F10" s="3">
+        <v>57300</v>
+      </c>
+      <c r="G10" s="3">
         <v>39100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>71900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>10900</v>
       </c>
-      <c r="I10" s="3">
-        <v>88500</v>
-      </c>
       <c r="J10" s="3">
+        <v>56100</v>
+      </c>
+      <c r="K10" s="3">
         <v>78700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>51600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>42000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>42600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>39200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>38400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>38700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>133100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>43100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>26400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>25400</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1096,22 +1116,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -1119,8 +1139,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1132,87 +1152,93 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>3200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1700</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E15" s="3">
         <v>5000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>9400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>6000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3100</v>
-      </c>
-      <c r="O15" s="3">
-        <v>3400</v>
       </c>
       <c r="P15" s="3">
         <v>3400</v>
       </c>
       <c r="Q15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="R15" s="3">
         <v>16600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>5000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3800</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>68200</v>
+      </c>
+      <c r="E17" s="3">
         <v>53100</v>
       </c>
-      <c r="E17" s="3">
-        <v>46400</v>
-      </c>
       <c r="F17" s="3">
+        <v>53800</v>
+      </c>
+      <c r="G17" s="3">
         <v>39000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>86200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>47700</v>
       </c>
-      <c r="I17" s="3">
-        <v>116900</v>
-      </c>
       <c r="J17" s="3">
+        <v>49500</v>
+      </c>
+      <c r="K17" s="3">
         <v>87000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>64500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>45800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>35100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>32800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>29400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>29700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>124100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>32800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>29000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>24700</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1500</v>
       </c>
-      <c r="E18" s="3">
-        <v>8000</v>
-      </c>
       <c r="F18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G18" s="3">
         <v>3000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7500</v>
       </c>
-      <c r="I18" s="3">
-        <v>12700</v>
-      </c>
       <c r="J18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K18" s="3">
         <v>6700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>11900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>9700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>800</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1413,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
-        <v>19700</v>
-      </c>
       <c r="F20" s="3">
+        <v>27900</v>
+      </c>
+      <c r="G20" s="3">
         <v>4500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>7500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6900</v>
       </c>
-      <c r="I20" s="3">
-        <v>13900</v>
-      </c>
       <c r="J20" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K20" s="3">
         <v>23100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-700</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>47400</v>
+      </c>
+      <c r="E21" s="3">
         <v>4800</v>
       </c>
-      <c r="E21" s="3">
-        <v>33600</v>
-      </c>
       <c r="F21" s="3">
+        <v>36100</v>
+      </c>
+      <c r="G21" s="3">
         <v>12500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-9700</v>
       </c>
-      <c r="I21" s="3">
-        <v>28100</v>
-      </c>
       <c r="J21" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K21" s="3">
         <v>30000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>21700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>12300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>24100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3">
         <v>3900</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,132 +1606,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
-        <v>27700</v>
-      </c>
       <c r="F23" s="3">
+        <v>30200</v>
+      </c>
+      <c r="G23" s="3">
         <v>7500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-14400</v>
       </c>
-      <c r="I23" s="3">
-        <v>26600</v>
-      </c>
       <c r="J23" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K23" s="3">
         <v>29800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>10700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>9100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>100</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-800</v>
       </c>
-      <c r="E24" s="3">
-        <v>100</v>
-      </c>
       <c r="F24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G24" s="3">
         <v>1300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1500</v>
       </c>
-      <c r="I24" s="3">
-        <v>4600</v>
-      </c>
       <c r="J24" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K24" s="3">
         <v>1700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E26" s="3">
         <v>600</v>
       </c>
-      <c r="E26" s="3">
-        <v>27700</v>
-      </c>
       <c r="F26" s="3">
+        <v>30800</v>
+      </c>
+      <c r="G26" s="3">
         <v>6300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-16000</v>
       </c>
-      <c r="I26" s="3">
-        <v>22000</v>
-      </c>
       <c r="J26" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K26" s="3">
         <v>28100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>9700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E27" s="3">
         <v>600</v>
       </c>
-      <c r="E27" s="3">
-        <v>27700</v>
-      </c>
       <c r="F27" s="3">
+        <v>30800</v>
+      </c>
+      <c r="G27" s="3">
         <v>6300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-16000</v>
       </c>
-      <c r="I27" s="3">
-        <v>22000</v>
-      </c>
       <c r="J27" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K27" s="3">
         <v>28100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>11400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>9700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1947,22 +2008,22 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-2300</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>148100</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-4100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-4900</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
+      <c r="J29" s="3">
+        <v>11800</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
@@ -1970,8 +2031,8 @@
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
-        <v>-19700</v>
-      </c>
       <c r="F32" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="G32" s="3">
         <v>-4500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-7500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6900</v>
       </c>
-      <c r="I32" s="3">
-        <v>-13900</v>
-      </c>
       <c r="J32" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-23100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>700</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E33" s="3">
         <v>600</v>
       </c>
-      <c r="E33" s="3">
-        <v>25400</v>
-      </c>
       <c r="F33" s="3">
+        <v>28500</v>
+      </c>
+      <c r="G33" s="3">
         <v>154400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-20900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>22000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>28100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>11400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>9700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E35" s="3">
         <v>600</v>
       </c>
-      <c r="E35" s="3">
-        <v>25400</v>
-      </c>
       <c r="F35" s="3">
+        <v>28500</v>
+      </c>
+      <c r="G35" s="3">
         <v>154400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-20900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>22000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>28100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>11400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>9700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,53 +2573,54 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>178500</v>
+      </c>
+      <c r="E41" s="3">
         <v>143300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>134200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>64400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>105500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>169800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>139500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>170700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>134200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>169800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>177900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>217600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>44000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>39300</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2549,52 +2636,55 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>22800</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>55200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>56500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>49000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>43700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>45300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>16900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1300</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2611,53 +2701,56 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E43" s="3">
         <v>39600</v>
       </c>
-      <c r="E43" s="3">
-        <v>43400</v>
-      </c>
       <c r="F43" s="3">
+        <v>39600</v>
+      </c>
+      <c r="G43" s="3">
         <v>42800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>116900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>148100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>201600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>107400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>67100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>52400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>44600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>53200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>44600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>38800</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2685,23 +2781,23 @@
         <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
         <v>200</v>
       </c>
       <c r="H44" s="3">
+        <v>200</v>
+      </c>
+      <c r="I44" s="3">
         <v>7300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>7800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1900</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2717,8 +2813,8 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2735,53 +2831,56 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E45" s="3">
         <v>5900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>28200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>34900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>25800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>26900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>24000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2500</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,53 +2896,56 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>253300</v>
+      </c>
+      <c r="E46" s="3">
         <v>188900</v>
       </c>
-      <c r="E46" s="3">
-        <v>187500</v>
-      </c>
       <c r="F46" s="3">
+        <v>183700</v>
+      </c>
+      <c r="G46" s="3">
         <v>176300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>307200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>409100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>418300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>352200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>242200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>240900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>238100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>273500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>91600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>80700</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2859,53 +2961,56 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>374400</v>
+      </c>
+      <c r="E47" s="3">
         <v>371800</v>
       </c>
-      <c r="E47" s="3">
-        <v>361100</v>
-      </c>
       <c r="F47" s="3">
+        <v>366400</v>
+      </c>
+      <c r="G47" s="3">
         <v>349300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>84000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>78300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>77700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>70200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>47000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>38900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>37100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>7700</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2921,53 +3026,56 @@
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E48" s="3">
         <v>16700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>18200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>19600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>23300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>25000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>26100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>27700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>26300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12900</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2983,53 +3091,56 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>543700</v>
+      </c>
+      <c r="E49" s="3">
         <v>545200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>536900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>539500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>539000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>537700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>532400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>533900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>535100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>536100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>537000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>538000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>538700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>539600</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,43 +3286,46 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E52" s="3">
         <v>3900</v>
       </c>
-      <c r="E52" s="3">
-        <v>4000</v>
-      </c>
       <c r="F52" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G52" s="3">
         <v>3900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
         <v>700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>900</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1100</v>
       </c>
       <c r="O52" s="3">
         <v>1100</v>
@@ -3213,8 +3333,8 @@
       <c r="P52" s="3">
         <v>1100</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
+      <c r="Q52" s="3">
+        <v>1100</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,53 +3416,56 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1190000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1126500</v>
       </c>
-      <c r="E54" s="3">
-        <v>1107700</v>
-      </c>
       <c r="F54" s="3">
+        <v>1109600</v>
+      </c>
+      <c r="G54" s="3">
         <v>1088700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>963600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1054800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1060600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>984000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>852300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>842800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>825300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>829600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>651500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>642000</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,52 +3533,53 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E57" s="3">
         <v>32300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>25500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>26100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>28800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>66200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>57100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>41500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>32200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>23800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>23500</v>
-      </c>
-      <c r="O57" s="3">
-        <v>21800</v>
       </c>
       <c r="P57" s="3">
         <v>21800</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
+      <c r="Q57" s="3">
+        <v>21800</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
@@ -3465,53 +3596,56 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>48400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>47800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>26500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3527,53 +3661,56 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E59" s="3">
         <v>20700</v>
       </c>
-      <c r="E59" s="3">
-        <v>14700</v>
-      </c>
       <c r="F59" s="3">
+        <v>14500</v>
+      </c>
+      <c r="G59" s="3">
         <v>12600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>21500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>33300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>23700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10300</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3589,53 +3726,56 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>78800</v>
+      </c>
+      <c r="E60" s="3">
         <v>57500</v>
       </c>
-      <c r="E60" s="3">
-        <v>45500</v>
-      </c>
       <c r="F60" s="3">
+        <v>45300</v>
+      </c>
+      <c r="G60" s="3">
         <v>43900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>54300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>147900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>128600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>82300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>48700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>40500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>34000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>34600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>35000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>35200</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,53 +3791,56 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E61" s="3">
         <v>4500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2100</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3713,53 +3856,56 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E62" s="3">
         <v>11400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>11800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>12900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13400</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,53 +4116,56 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>93800</v>
+      </c>
+      <c r="E66" s="3">
         <v>73400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>60700</v>
+      </c>
+      <c r="G66" s="3">
         <v>60900</v>
       </c>
-      <c r="F66" s="3">
-        <v>60900</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>72700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>170600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>148400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>105900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>72700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>67000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>49800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>52600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>52900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>50700</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,53 +4466,56 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>330700</v>
+      </c>
+      <c r="E72" s="3">
         <v>288600</v>
       </c>
-      <c r="E72" s="3">
-        <v>280200</v>
-      </c>
       <c r="F72" s="3">
+        <v>283300</v>
+      </c>
+      <c r="G72" s="3">
         <v>253800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>98000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>79600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>99500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>76000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>46500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>43000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>36400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>33100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>21700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12700</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,53 +4726,56 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1096200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1053000</v>
       </c>
-      <c r="E76" s="3">
-        <v>1046700</v>
-      </c>
       <c r="F76" s="3">
+        <v>1048900</v>
+      </c>
+      <c r="G76" s="3">
         <v>1027800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>890900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>884200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>912200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>878200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>779600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>775900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>775500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>777000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>598600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>591300</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E81" s="3">
         <v>600</v>
       </c>
-      <c r="E81" s="3">
-        <v>25400</v>
-      </c>
       <c r="F81" s="3">
+        <v>28500</v>
+      </c>
+      <c r="G81" s="3">
         <v>154400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-20900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>22000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>28100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>11400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>9700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,29 +5018,30 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E83" s="3">
         <v>5000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>9600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4700</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4861,15 +5060,15 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3">
         <v>3400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>16600</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,56 +5406,59 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E89" s="3">
         <v>7300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>17500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-95600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>171400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>51400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-20000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-17500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-16000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>10800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>11700</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,29 +5498,30 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1400</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5319,15 +5540,15 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3500</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,56 +5691,59 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E94" s="3">
         <v>3000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>60200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-35800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-21400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-44200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-35300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-17800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-43500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3300</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,56 +6041,59 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-8400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-23900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-68700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>32200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>90200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>169500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-10000</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5860,56 +6106,59 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-200</v>
       </c>
       <c r="N101" s="3">
         <v>-200</v>
       </c>
       <c r="O101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>700</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5922,56 +6171,59 @@
       <c r="V101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E102" s="3">
         <v>9100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>69800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-154000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>78900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>30300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-31200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>36500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-35700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-39800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>173600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1000</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OPRA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OPRA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
   <si>
     <t>OPRA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>66700</v>
+      </c>
+      <c r="E8" s="3">
         <v>60300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>51600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>56200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>42000</v>
       </c>
-      <c r="H8" s="3">
-        <v>78400</v>
-      </c>
       <c r="I8" s="3">
+        <v>38200</v>
+      </c>
+      <c r="J8" s="3">
         <v>40200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>48800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>93700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>61700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>49800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>48300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>44700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>39800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>39400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>134400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>43500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>26500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>25500</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E9" s="3">
         <v>2700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>-1100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2900</v>
       </c>
-      <c r="H9" s="3">
-        <v>6500</v>
-      </c>
       <c r="I9" s="3">
+        <v>8700</v>
+      </c>
+      <c r="J9" s="3">
         <v>29300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>-7300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>400</v>
-      </c>
-      <c r="T9" s="3">
-        <v>100</v>
       </c>
       <c r="U9" s="3">
         <v>100</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>3</v>
+      <c r="V9" s="3">
+        <v>100</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E10" s="3">
         <v>57600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>49400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>57300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>39100</v>
       </c>
-      <c r="H10" s="3">
-        <v>71900</v>
-      </c>
       <c r="I10" s="3">
+        <v>29500</v>
+      </c>
+      <c r="J10" s="3">
         <v>10900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>56100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>78700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>51600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>42000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>42600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>39200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>38400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>38700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>133100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>43100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>26400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>25400</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1119,22 +1139,22 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>7300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>600</v>
       </c>
-      <c r="H14" s="3">
-        <v>2600</v>
-      </c>
       <c r="I14" s="3">
+        <v>500</v>
+      </c>
+      <c r="J14" s="3">
         <v>2100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -1142,8 +1162,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1155,90 +1175,96 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>3200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1700</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E15" s="3">
         <v>5100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4900</v>
       </c>
-      <c r="H15" s="3">
-        <v>9400</v>
-      </c>
       <c r="I15" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J15" s="3">
         <v>4700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>6000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3100</v>
-      </c>
-      <c r="P15" s="3">
-        <v>3400</v>
       </c>
       <c r="Q15" s="3">
         <v>3400</v>
       </c>
       <c r="R15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="S15" s="3">
         <v>16600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>5000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3800</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E17" s="3">
         <v>68200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>53100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>53800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>39000</v>
       </c>
-      <c r="H17" s="3">
-        <v>86200</v>
-      </c>
       <c r="I17" s="3">
+        <v>38500</v>
+      </c>
+      <c r="J17" s="3">
         <v>47700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>49500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>87000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>64500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>45800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>35100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>32800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>29400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>29700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>124100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>32800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>29000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>24700</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-7900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3000</v>
       </c>
-      <c r="H18" s="3">
-        <v>-7800</v>
-      </c>
       <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-7500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>11900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>9700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>10700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>800</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,138 +1447,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E20" s="3">
         <v>50200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>27900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4500</v>
       </c>
-      <c r="H20" s="3">
-        <v>7500</v>
-      </c>
       <c r="I20" s="3">
+        <v>14400</v>
+      </c>
+      <c r="J20" s="3">
         <v>-6900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>14600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>23100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-700</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E21" s="3">
         <v>47400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>36100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>12500</v>
       </c>
-      <c r="H21" s="3">
-        <v>9300</v>
-      </c>
       <c r="I21" s="3">
+        <v>19000</v>
+      </c>
+      <c r="J21" s="3">
         <v>-9700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>15500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>30000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>21700</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>12300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>24100</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3">
         <v>3900</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E23" s="3">
         <v>42300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>30200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7500</v>
       </c>
-      <c r="H23" s="3">
-        <v>-300</v>
-      </c>
       <c r="I23" s="3">
+        <v>14100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-14400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>14000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>29800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>12100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>10700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>9900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>8900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>9100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>100</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1300</v>
       </c>
-      <c r="H24" s="3">
-        <v>-700</v>
-      </c>
       <c r="I24" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J24" s="3">
         <v>1500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E26" s="3">
         <v>44300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>30800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6300</v>
       </c>
-      <c r="H26" s="3">
-        <v>400</v>
-      </c>
       <c r="I26" s="3">
+        <v>16300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-16000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>10200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>28100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>9700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E27" s="3">
         <v>44300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>30800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6300</v>
       </c>
-      <c r="H27" s="3">
-        <v>400</v>
-      </c>
       <c r="I27" s="3">
+        <v>16300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-16000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>10200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>28100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>11400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>9700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2011,31 +2072,31 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-2300</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>148100</v>
       </c>
-      <c r="H29" s="3">
-        <v>-4100</v>
-      </c>
       <c r="I29" s="3">
+        <v>800</v>
+      </c>
+      <c r="J29" s="3">
         <v>-4900</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>11800</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-50200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-27900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4500</v>
       </c>
-      <c r="H32" s="3">
-        <v>-7500</v>
-      </c>
       <c r="I32" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="J32" s="3">
         <v>6900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-14600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-23100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>700</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E33" s="3">
         <v>44300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>28500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>154400</v>
       </c>
-      <c r="H33" s="3">
-        <v>-3700</v>
-      </c>
       <c r="I33" s="3">
+        <v>17100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-20900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>22000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>28100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>11400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>9700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E35" s="3">
         <v>44300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>28500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>154400</v>
       </c>
-      <c r="H35" s="3">
-        <v>-3700</v>
-      </c>
       <c r="I35" s="3">
+        <v>17100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-20900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>22000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>28100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>11400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>9700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,56 +2660,57 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E41" s="3">
         <v>178500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>143300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>134200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>64400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>105500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>169800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>139500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>170700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>134200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>169800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>177900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>217600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>44000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>39300</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2639,55 +2726,58 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>106300</v>
+      </c>
+      <c r="E42" s="3">
         <v>22800</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>55200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>56500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>49000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>43700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>45300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>16900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>7400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1300</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2704,56 +2794,59 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E43" s="3">
         <v>43800</v>
-      </c>
-      <c r="E43" s="3">
-        <v>39600</v>
       </c>
       <c r="F43" s="3">
         <v>39600</v>
       </c>
       <c r="G43" s="3">
+        <v>39600</v>
+      </c>
+      <c r="H43" s="3">
         <v>42800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>116900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>148100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>201600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>107400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>67100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>52400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>44600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>53200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>44600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>38800</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2784,23 +2880,23 @@
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
       </c>
       <c r="I44" s="3">
+        <v>200</v>
+      </c>
+      <c r="J44" s="3">
         <v>7300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>7800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1900</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2816,8 +2912,8 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -2834,56 +2930,59 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E45" s="3">
         <v>8200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>28200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>34900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>25800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>26900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>24000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2500</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,56 +2998,59 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>254400</v>
+      </c>
+      <c r="E46" s="3">
         <v>253300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>188900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>183700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>176300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>307200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>409100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>418300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>352200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>242200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>240900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>238100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>273500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>91600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>80700</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2964,56 +3066,59 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>399900</v>
+      </c>
+      <c r="E47" s="3">
         <v>374400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>371800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>366400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>349300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>84000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>78300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>77700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>70200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>47000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>38900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>37100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>7700</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,56 +3134,59 @@
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E48" s="3">
         <v>14800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>16700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>18200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>19600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>23300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>25000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>26100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>27400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>26300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12900</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,56 +3202,59 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>540800</v>
+      </c>
+      <c r="E49" s="3">
         <v>543700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>545200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>536900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>539500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>539000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>537700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>532400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>533900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>535100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>536100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>537000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>538000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>538700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>539600</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,46 +3406,49 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E52" s="3">
         <v>3800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>10200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3">
         <v>700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>900</v>
-      </c>
-      <c r="O52" s="3">
-        <v>1100</v>
       </c>
       <c r="P52" s="3">
         <v>1100</v>
@@ -3336,8 +3456,8 @@
       <c r="Q52" s="3">
         <v>1100</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
+      <c r="R52" s="3">
+        <v>1100</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,56 +3542,59 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1212500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1190000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1126500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1109600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1088700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>963600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1054800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1060600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>984000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>852300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>842800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>825300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>829600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>651500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>642000</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,55 +3664,56 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E57" s="3">
         <v>43000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>32300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>25500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>26100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>28800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>66200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>57100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>41500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>32200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>23800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>18000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>23500</v>
-      </c>
-      <c r="P57" s="3">
-        <v>21800</v>
       </c>
       <c r="Q57" s="3">
         <v>21800</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
+      <c r="R57" s="3">
+        <v>21800</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
@@ -3599,56 +3730,59 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E58" s="3">
         <v>4000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>48400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>47800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>26500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3664,56 +3798,59 @@
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E59" s="3">
         <v>31700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>21500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>33300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>23700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10300</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3729,56 +3866,59 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>77700</v>
+      </c>
+      <c r="E60" s="3">
         <v>78800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>57500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>45300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>43900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>54300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>147900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>128600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>82300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>48700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>40500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>34000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>34600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>35000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>35200</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3794,56 +3934,59 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E61" s="3">
         <v>2700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>12000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2100</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3859,56 +4002,59 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E62" s="3">
         <v>12300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>11400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>11800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>12900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13400</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,56 +4274,59 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>90500</v>
+      </c>
+      <c r="E66" s="3">
         <v>93800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>73400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>60700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>60900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>72700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>170600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>148400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>105900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>72700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>67000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>49800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>52600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>52900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>50700</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,56 +4640,59 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>357900</v>
+      </c>
+      <c r="E72" s="3">
         <v>330700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>288600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>283300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>253800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>98000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>79600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>99500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>76000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>46500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>43000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>36400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>33100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>21700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12700</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,56 +4912,59 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1122000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1096200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1053000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1048900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1027800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>890900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>884200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>912200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>878200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>779600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>775900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>775500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>777000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>598600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>591300</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E81" s="3">
         <v>44300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>28500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>154400</v>
       </c>
-      <c r="H81" s="3">
-        <v>-3700</v>
-      </c>
       <c r="I81" s="3">
+        <v>17100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-20900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>22000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>28100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>11400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>9700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,32 +5217,33 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E83" s="3">
         <v>5100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5000</v>
       </c>
-      <c r="H83" s="3">
-        <v>9600</v>
-      </c>
       <c r="I83" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J83" s="3">
         <v>4700</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5063,15 +5262,15 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3">
         <v>3400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>16600</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,59 +5623,62 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E89" s="3">
         <v>6300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>17500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-95600</v>
       </c>
-      <c r="H89" s="3">
-        <v>171400</v>
-      </c>
       <c r="I89" s="3">
+        <v>120000</v>
+      </c>
+      <c r="J89" s="3">
         <v>51400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-20000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-17500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-16000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>12100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>10800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>11700</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,32 +5719,33 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>-2200</v>
-      </c>
       <c r="I91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1400</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5543,15 +5764,15 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3">
         <v>-1300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3500</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,59 +5921,62 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-82700</v>
+      </c>
+      <c r="E94" s="3">
         <v>31500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>3000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>60200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-35800</v>
       </c>
-      <c r="H94" s="3">
-        <v>-21400</v>
-      </c>
       <c r="I94" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="J94" s="3">
         <v>-15200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-44200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-35300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-17800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-43500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3300</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,59 +6287,62 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-23900</v>
       </c>
-      <c r="H100" s="3">
-        <v>-68700</v>
-      </c>
       <c r="I100" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="J100" s="3">
         <v>-5700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>32200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>90200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>169500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-10000</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6109,59 +6355,62 @@
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1300</v>
       </c>
-      <c r="H101" s="3">
-        <v>-2400</v>
-      </c>
       <c r="I101" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-200</v>
       </c>
       <c r="O101" s="3">
         <v>-200</v>
       </c>
       <c r="P101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>700</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
@@ -6174,59 +6423,62 @@
       <c r="W101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-88500</v>
+      </c>
+      <c r="E102" s="3">
         <v>35200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>69800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-154000</v>
       </c>
-      <c r="H102" s="3">
-        <v>78900</v>
-      </c>
       <c r="I102" s="3">
+        <v>48600</v>
+      </c>
+      <c r="J102" s="3">
         <v>30300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-31200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>36500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-35700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-39800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>173600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1000</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OPRA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OPRA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="92">
   <si>
     <t>OPRA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>72900</v>
+      </c>
+      <c r="E8" s="3">
         <v>66700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>60300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>51600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>56200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>42000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>38200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>40200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>48800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>93700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>61700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>49800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>48300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>44700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>39800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>39400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>134400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>43500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>26500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>25500</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E9" s="3">
         <v>3300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>-1100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>29300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>-7300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>400</v>
-      </c>
-      <c r="U9" s="3">
-        <v>100</v>
       </c>
       <c r="V9" s="3">
         <v>100</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>3</v>
+      <c r="W9" s="3">
+        <v>100</v>
       </c>
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>67400</v>
+      </c>
+      <c r="E10" s="3">
         <v>63400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>57600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>49400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>57300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>39100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>29500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>56100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>78700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>51600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>42000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>42600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>39200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>38400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>38700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>133100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>43100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>26400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>25400</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,13 +1143,16 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>6400</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1142,22 +1161,22 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>7300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -1165,8 +1184,8 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1178,93 +1197,99 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>3200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1700</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E15" s="3">
         <v>4900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>5900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3100</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>3400</v>
       </c>
       <c r="R15" s="3">
         <v>3400</v>
       </c>
       <c r="S15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="T15" s="3">
         <v>16600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>5000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3800</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>70600</v>
+      </c>
+      <c r="E17" s="3">
         <v>67300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>68200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>53100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>53800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>39000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>38500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>47700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>49500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>87000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>64500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>45800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>35100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>32800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>29400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>29700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>124100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>32800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>29000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>24700</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>11900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>9700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>10300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>10700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>800</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-83200</v>
+      </c>
+      <c r="E20" s="3">
         <v>24500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>50200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>27900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>14400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>14600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>23100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-700</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-76400</v>
+      </c>
+      <c r="E21" s="3">
         <v>28800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>47400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>36100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>12500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>19000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-9700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>15500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>30000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>21700</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
         <v>12300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>24100</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="3">
         <v>3900</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,144 +1691,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="E23" s="3">
         <v>23900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>42300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>30200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>14100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-14400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>29800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>12100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>10700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>9100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>100</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>200</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-83400</v>
+      </c>
+      <c r="E26" s="3">
         <v>23500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>44300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>30800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-16000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>28100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>11400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>9700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-83400</v>
+      </c>
+      <c r="E27" s="3">
         <v>23500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>44300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>30800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-16000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>28100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>11400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>9700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,13 +2117,16 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2075,31 +2135,31 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-2300</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>148100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-4900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>11800</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>83200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-24500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-50200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-27900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-14400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-14600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-23100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>700</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-84200</v>
+      </c>
+      <c r="E33" s="3">
         <v>23500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>44300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>28500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>154400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>17100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-20900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>22000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>28100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>11400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>9700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>7500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-84200</v>
+      </c>
+      <c r="E35" s="3">
         <v>23500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>44300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>28500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>154400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>17100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-20900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>22000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>28100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>11400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>9700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,59 +2746,60 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>102900</v>
+      </c>
+      <c r="E41" s="3">
         <v>90000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>178500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>143300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>134200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>64400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>105500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>169800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>139500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>170700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>134200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>169800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>177900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>217600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>44000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>39300</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2729,58 +2815,61 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E42" s="3">
         <v>106300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>22800</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>55200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>56500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>49000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>43700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>45300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>16900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>7400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1300</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2797,59 +2886,62 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E43" s="3">
         <v>47500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>43800</v>
-      </c>
-      <c r="F43" s="3">
-        <v>39600</v>
       </c>
       <c r="G43" s="3">
         <v>39600</v>
       </c>
       <c r="H43" s="3">
+        <v>39600</v>
+      </c>
+      <c r="I43" s="3">
         <v>42800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>116900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>148100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>201600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>107400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>67100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>52400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>44600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>53200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>44600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>38800</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2865,13 +2957,16 @@
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
@@ -2883,23 +2978,23 @@
         <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
         <v>200</v>
       </c>
       <c r="J44" s="3">
+        <v>200</v>
+      </c>
+      <c r="K44" s="3">
         <v>7300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1900</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2915,8 +3010,8 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -2933,59 +3028,62 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E45" s="3">
         <v>10600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>28200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>34900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>25800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>26900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>24000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2500</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3001,59 +3099,62 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>252600</v>
+      </c>
+      <c r="E46" s="3">
         <v>254400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>253300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>188900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>183700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>176300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>307200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>409100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>418300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>352200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>242200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>240900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>238100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>273500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>91600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>80700</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3069,59 +3170,62 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>235500</v>
+      </c>
+      <c r="E47" s="3">
         <v>399900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>374400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>371800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>366400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>349300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>84000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>78300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>77700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>70200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>47000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>38900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>37100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>6800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7700</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3137,59 +3241,62 @@
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E48" s="3">
         <v>13800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>16700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>18200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>19600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>23300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>25000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>26100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>27700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>27400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>26300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12900</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3205,59 +3312,62 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>533200</v>
+      </c>
+      <c r="E49" s="3">
         <v>540800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>543700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>545200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>536900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>539500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>539000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>537700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>532400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>533900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>535100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>536100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>537000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>538000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>538700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>539600</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,49 +3525,52 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>87800</v>
+      </c>
+      <c r="E52" s="3">
         <v>3700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3">
         <v>700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>900</v>
-      </c>
-      <c r="P52" s="3">
-        <v>1100</v>
       </c>
       <c r="Q52" s="3">
         <v>1100</v>
@@ -3459,8 +3578,8 @@
       <c r="R52" s="3">
         <v>1100</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
+      <c r="S52" s="3">
+        <v>1100</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,59 +3667,62 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1121400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1212500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1190000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1126500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1109600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1088700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>963600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1054800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1060600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>984000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>852300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>842800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>825300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>829600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>651500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>642000</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3613,8 +3738,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,58 +3794,59 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E57" s="3">
         <v>36600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>43000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>32300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>25500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>26100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>28800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>66200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>57100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>41500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>32200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>23800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>18000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>23500</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>21800</v>
       </c>
       <c r="R57" s="3">
         <v>21800</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
+      <c r="S57" s="3">
+        <v>21800</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
@@ -3733,59 +3863,62 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E58" s="3">
         <v>27100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>48400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>47800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>26500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3801,59 +3934,62 @@
       <c r="X58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E59" s="3">
         <v>14000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>31700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>21500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>33300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10300</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,59 +4005,62 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E60" s="3">
         <v>77700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>78800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>57500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>45300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>43900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>54300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>147900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>128600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>82300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>48700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>40500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>34000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>34600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>35000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>35200</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3937,59 +4076,62 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E61" s="3">
         <v>2200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>12000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2100</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4005,59 +4147,62 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E62" s="3">
         <v>10700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>12300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>11400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>11800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>12900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>15300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>14600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13400</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,59 +4431,62 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E66" s="3">
         <v>90500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>93800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>73400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>60700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>60900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>72700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>170600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>148400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>105900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>72700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>67000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>49800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>52600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>52900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>50700</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4345,8 +4502,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,59 +4813,62 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>277300</v>
+      </c>
+      <c r="E72" s="3">
         <v>357900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>330700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>288600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>283300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>253800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>98000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>79600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>99500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>76000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>46500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>43000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>36400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>33100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>21700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>12700</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4711,8 +4884,11 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,59 +5097,62 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1041200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1122000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1096200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1053000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1048900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1027800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>890900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>884200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>912200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>878200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>779600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>775900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>775500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>777000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>598600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>591300</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4983,8 +5168,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-84200</v>
+      </c>
+      <c r="E81" s="3">
         <v>23500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>44300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>28500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>154400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>17100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-20900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>22000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>28100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>11400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>9700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>7500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,35 +5415,36 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E83" s="3">
         <v>4900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4700</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5265,15 +5463,15 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3">
         <v>3400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>16600</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,62 +5839,65 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>17500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-95600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>120000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>51400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-20000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-17500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-16000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>12100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>6800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>10800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>11700</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5729,26 +5949,26 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1400</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5767,15 +5987,15 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S91" s="3">
         <v>-1300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3500</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,62 +6150,65 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-82700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>31500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>60200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-35800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-44200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-35300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-17800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-43500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3300</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,62 +6532,65 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-8400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-23900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-63000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>32200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>90200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>169500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-10000</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6358,62 +6603,65 @@
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-200</v>
       </c>
       <c r="P101" s="3">
         <v>-200</v>
       </c>
       <c r="Q101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>700</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
@@ -6426,62 +6674,65 @@
       <c r="X101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-88500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>35200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>69800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-154000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>48600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>30300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-31200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>36500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-35700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-39800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>173600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1000</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>3</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OPRA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OPRA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
   <si>
     <t>OPRA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>71800</v>
+      </c>
+      <c r="E8" s="3">
         <v>72900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>66700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>60300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>51600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>56200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>42000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>38200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>40200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>48800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>93700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>61700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>49800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>48300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>44700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>39800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>39400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>134400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>43500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>26500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>25500</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E9" s="3">
         <v>5500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>-1100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>29300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>-7300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>400</v>
-      </c>
-      <c r="V9" s="3">
-        <v>100</v>
       </c>
       <c r="W9" s="3">
         <v>100</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>3</v>
+      <c r="X9" s="3">
+        <v>100</v>
       </c>
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>63800</v>
+      </c>
+      <c r="E10" s="3">
         <v>67400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>63400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>57600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>49400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>57300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>39100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>29500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>56100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>78700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>51600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>42000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>42600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>39200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>38400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>38700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>133100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>43100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>26400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>25400</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,16 +1163,19 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6400</v>
+        <v>700</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>123800</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1164,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>7300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
@@ -1187,8 +1207,8 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1200,96 +1220,102 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>3200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1700</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E15" s="3">
         <v>4600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>5000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>5900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3100</v>
-      </c>
-      <c r="R15" s="3">
-        <v>3400</v>
       </c>
       <c r="S15" s="3">
         <v>3400</v>
       </c>
       <c r="T15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="U15" s="3">
         <v>16600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>5000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>3800</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>70600</v>
+        <v>70400</v>
       </c>
       <c r="E17" s="3">
+        <v>187300</v>
+      </c>
+      <c r="F17" s="3">
         <v>67300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>68200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>53100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>53800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>39000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>38500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>47700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>49500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>87000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>64500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>45800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>35100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>32800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>29400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>29700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>124100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>32800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>29000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>24700</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2300</v>
+        <v>1400</v>
       </c>
       <c r="E18" s="3">
+        <v>-114400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>11900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>9700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>10300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>10700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>800</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,150 +1514,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-83200</v>
+        <v>-10200</v>
       </c>
       <c r="E20" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F20" s="3">
         <v>24500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>50200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>27900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>14400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>14600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>23100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-700</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-76400</v>
+        <v>-5200</v>
       </c>
       <c r="E21" s="3">
+        <v>-104600</v>
+      </c>
+      <c r="F21" s="3">
         <v>28800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>47400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>36100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>12500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>19000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-9700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>15500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>30000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>8800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>21700</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
         <v>12300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>24100</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X21" s="3">
         <v>3900</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,150 +1734,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-81000</v>
+        <v>-8800</v>
       </c>
       <c r="E23" s="3">
+        <v>-109100</v>
+      </c>
+      <c r="F23" s="3">
         <v>23900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>42300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>30200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>14100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-14400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>14000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>29800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>12100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>10700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>9900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>7500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>9100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>100</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>2400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>200</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-83400</v>
+        <v>-9400</v>
       </c>
       <c r="E26" s="3">
+        <v>-111600</v>
+      </c>
+      <c r="F26" s="3">
         <v>23500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>44300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>30800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>16300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-16000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>28100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>11400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>9700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-83400</v>
+        <v>-9400</v>
       </c>
       <c r="E27" s="3">
+        <v>-111600</v>
+      </c>
+      <c r="F27" s="3">
         <v>23500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>44300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>30800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>16300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-16000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>28100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>11400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>9700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,17 +2178,20 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="3">
         <v>-800</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
@@ -2138,31 +2199,31 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-2300</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>148100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-4900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>11800</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>83200</v>
+        <v>10200</v>
       </c>
       <c r="E32" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-24500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-50200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-27900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-14400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-14600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-23100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>700</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-84200</v>
+        <v>-9400</v>
       </c>
       <c r="E33" s="3">
+        <v>-112400</v>
+      </c>
+      <c r="F33" s="3">
         <v>23500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>44300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>28500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>154400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>17100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-20900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>22000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>28100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>11400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>9700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>7500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-84200</v>
+        <v>-9400</v>
       </c>
       <c r="E35" s="3">
+        <v>-112400</v>
+      </c>
+      <c r="F35" s="3">
         <v>23500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>44300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>28500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>154400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>17100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-20900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>22000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>28100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>11400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>9700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>7500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,62 +2833,63 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>117800</v>
+      </c>
+      <c r="E41" s="3">
         <v>102900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>90000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>178500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>143300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>134200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>64400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>105500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>169800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>139500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>170700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>134200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>169800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>177900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>217600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>44000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>39300</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2818,61 +2905,64 @@
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E42" s="3">
         <v>78100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>106300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>22800</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>55200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>56500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>49000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>43700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>45300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>16900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>7400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1300</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -2889,62 +2979,65 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>108400</v>
+      </c>
+      <c r="E43" s="3">
         <v>62400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>47500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>43800</v>
-      </c>
-      <c r="G43" s="3">
-        <v>39600</v>
       </c>
       <c r="H43" s="3">
         <v>39600</v>
       </c>
       <c r="I43" s="3">
+        <v>39600</v>
+      </c>
+      <c r="J43" s="3">
         <v>42800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>116900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>148100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>201600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>107400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>67100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>52400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>44600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>53200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>44600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>38800</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2960,16 +3053,19 @@
       <c r="Y43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -2981,23 +3077,23 @@
         <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
         <v>200</v>
       </c>
       <c r="K44" s="3">
+        <v>200</v>
+      </c>
+      <c r="L44" s="3">
         <v>7300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1900</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3013,8 +3109,8 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
@@ -3031,62 +3127,65 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9200</v>
+        <v>175700</v>
       </c>
       <c r="E45" s="3">
+        <v>297600</v>
+      </c>
+      <c r="F45" s="3">
         <v>10600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>28200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>34900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>25800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>26900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>24000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>14400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2500</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3102,62 +3201,65 @@
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>252600</v>
+        <v>466500</v>
       </c>
       <c r="E46" s="3">
+        <v>541000</v>
+      </c>
+      <c r="F46" s="3">
         <v>254400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>253300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>188900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>183700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>176300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>307200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>409100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>418300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>352200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>242200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>240900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>238100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>273500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>91600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>80700</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3173,62 +3275,65 @@
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>235500</v>
+        <v>61500</v>
       </c>
       <c r="E47" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F47" s="3">
         <v>399900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>374400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>371800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>366400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>349300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>84000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>78300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>77700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>70200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>47000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>38900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>37100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>6800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>7700</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3244,62 +3349,65 @@
       <c r="Y47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E48" s="3">
         <v>12300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>16700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>18200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>19600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>23300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>25000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>26100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>27700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>27400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>26300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12900</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3315,62 +3423,65 @@
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>533200</v>
+        <v>532900</v>
       </c>
       <c r="E49" s="3">
+        <v>534000</v>
+      </c>
+      <c r="F49" s="3">
         <v>540800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>543700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>545200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>536900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>539500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>539000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>537700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>532400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>533900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>535100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>536100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>537000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>538000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>538700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>539600</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,52 +3645,55 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>87800</v>
+        <v>2300</v>
       </c>
       <c r="E52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F52" s="3">
         <v>3700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3">
         <v>700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>900</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>1100</v>
       </c>
       <c r="R52" s="3">
         <v>1100</v>
@@ -3581,8 +3701,8 @@
       <c r="S52" s="3">
         <v>1100</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
+      <c r="T52" s="3">
+        <v>1100</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,62 +3793,65 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1121400</v>
+        <v>1074300</v>
       </c>
       <c r="E54" s="3">
+        <v>1092500</v>
+      </c>
+      <c r="F54" s="3">
         <v>1212500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1190000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1126500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1109600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1088700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>963600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1054800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1060600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>984000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>852300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>842800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>825300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>829600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>651500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>642000</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3741,8 +3867,11 @@
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,61 +3925,62 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>38800</v>
+        <v>47900</v>
       </c>
       <c r="E57" s="3">
+        <v>38400</v>
+      </c>
+      <c r="F57" s="3">
         <v>36600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>43000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>32300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>25500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>26100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>28800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>66200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>57100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>41500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>32200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>23800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>18000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>23500</v>
-      </c>
-      <c r="R57" s="3">
-        <v>21800</v>
       </c>
       <c r="S57" s="3">
         <v>21800</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
+      <c r="T57" s="3">
+        <v>21800</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
@@ -3866,62 +3997,65 @@
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E58" s="3">
         <v>11400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>27100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>48400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>47800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>26500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3100</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3937,62 +4071,65 @@
       <c r="Y58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>21400</v>
+        <v>13000</v>
       </c>
       <c r="E59" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F59" s="3">
         <v>14000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>31700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>20700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>33300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>23700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10300</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4008,62 +4145,65 @@
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>71500</v>
+        <v>64200</v>
       </c>
       <c r="E60" s="3">
+        <v>70800</v>
+      </c>
+      <c r="F60" s="3">
         <v>77700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>78800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>57500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>45300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>43900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>54300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>147900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>128600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>82300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>48700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>40500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>34000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>34600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>35000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>35200</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4079,62 +4219,65 @@
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E61" s="3">
         <v>2100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>12000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2100</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4150,62 +4293,65 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E62" s="3">
         <v>6600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>12300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>11400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>11800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>14600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13400</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,62 +4589,65 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>80200</v>
+        <v>71800</v>
       </c>
       <c r="E66" s="3">
+        <v>79400</v>
+      </c>
+      <c r="F66" s="3">
         <v>90500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>93800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>73400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>60700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>60900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>72700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>170600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>148400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>105900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>72700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>67000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>49800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>52600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>52900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>50700</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4505,8 +4663,11 @@
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,62 +4987,65 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>277300</v>
+        <v>241700</v>
       </c>
       <c r="E72" s="3">
+        <v>249200</v>
+      </c>
+      <c r="F72" s="3">
         <v>357900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>330700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>288600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>283300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>253800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>98000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>79600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>99500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>76000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>46500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>43000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>36400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>33100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>21700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>12700</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4887,8 +5061,11 @@
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,62 +5283,65 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1041200</v>
+        <v>1002500</v>
       </c>
       <c r="E76" s="3">
+        <v>1013000</v>
+      </c>
+      <c r="F76" s="3">
         <v>1122000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1096200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1053000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1048900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1027800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>890900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>884200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>912200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>878200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>779600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>775900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>775500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>777000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>598600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>591300</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5171,8 +5357,11 @@
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-84200</v>
+        <v>-9400</v>
       </c>
       <c r="E81" s="3">
+        <v>-112400</v>
+      </c>
+      <c r="F81" s="3">
         <v>23500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>44300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>28500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>154400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>17100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-20900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>22000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>28100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>11400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>9700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>7500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,38 +5614,39 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E83" s="3">
         <v>4600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4700</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5466,15 +5665,15 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T83" s="3">
         <v>3400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>16600</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,65 +6056,68 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E89" s="3">
         <v>16500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>17500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-95600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>120000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>51400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-20000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-17500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-16000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>12100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>10800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>11700</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5913,8 +6130,11 @@
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5952,26 +6173,26 @@
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1400</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5990,15 +6211,15 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T91" s="3">
         <v>-1300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3500</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,65 +6380,68 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-82700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>31500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>3000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>60200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-35800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-44200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-35300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-17800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-43500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3300</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,65 +6778,68 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-23900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-63000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>32200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>90200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>169500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-10000</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6606,65 +6852,68 @@
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-200</v>
       </c>
       <c r="Q101" s="3">
         <v>-200</v>
       </c>
       <c r="R101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>700</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V101" s="3" t="s">
         <v>3</v>
       </c>
@@ -6677,65 +6926,68 @@
       <c r="Y101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E102" s="3">
         <v>12900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-88500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>35200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>69800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-154000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>48600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>30300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-31200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>36500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-35700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-8000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-39800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>173600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>6100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1000</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6746,6 +6998,9 @@
         <v>3</v>
       </c>
       <c r="Y102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OPRA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OPRA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
   <si>
     <t>OPRA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,359 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>85400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>77900</v>
+      </c>
+      <c r="F8" s="3">
         <v>71800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>72900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>66700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>60300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>51600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>56200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>42000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>38200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>40200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>48800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>93700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>61700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>49800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>48300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>44700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>39800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>39400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>134400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>43500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>26500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>25500</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F9" s="3">
         <v>8000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>5500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>3300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>-1100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>8700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>29300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>-7300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>15000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>10100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>7800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>5700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>5500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>100</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>69700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>66100</v>
+      </c>
+      <c r="F10" s="3">
         <v>63800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>67400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>63400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>57600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>49400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>57300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>39100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>29500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>10900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>56100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>78700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>51600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>42000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>42600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>39200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>38400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>38700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>133100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>43100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>26400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>25400</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1044,10 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1120,14 @@
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,55 +1200,61 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>500</v>
+      </c>
+      <c r="F14" s="3">
         <v>700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>123800</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>7300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>2100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1223,99 +1263,111 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>3200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>1700</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F15" s="3">
         <v>3600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>4600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>4900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>5100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>5000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>5900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>4900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>4800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>4700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>6000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>4500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>4300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>4100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>2900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>3100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>3400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>3400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>16600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>5000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>3600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>3800</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1391,170 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>69300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>66700</v>
+      </c>
+      <c r="F17" s="3">
         <v>70400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>187300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>67300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>68200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>53100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>53800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>39000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>38500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>47700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>49500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>87000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>64500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>45800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>35100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>32800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>29400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>29700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>124100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>32800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>29000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>24700</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F18" s="3">
         <v>1400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-114400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-7900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>2400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>3000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-7500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>6700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>4000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>13200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>11900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>10400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>9700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>10300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>10700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-2500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>800</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,156 +1581,170 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-10200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>5200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>24500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>50200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>27900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>4500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>14400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-6900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>14600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>23100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>5200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-2800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-1500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-700</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-104600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>28800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>47400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>4800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>36100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>12500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>19000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-9700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>15500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>30000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>8800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>21700</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3">
         <v>12300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>24100</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="3">
         <v>3900</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,156 +1817,174 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-8800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-109100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>23900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>42300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>30200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>7500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>14100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-14400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>14000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>29800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>4700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>12100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>10700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>9900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>8900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>7500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>9100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>100</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>2400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-2000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-2200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>3800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>1000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>2500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>2300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>1400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>1600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>200</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2057,174 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-9400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-111600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>23500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>44300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>30800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>6300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>16300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-16000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>10200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>28100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>3400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>4400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>11400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>9700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>7400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>6600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>6100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>7500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-2600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-9400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-111600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>23500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>44300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>30800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>6300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>16300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-16000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>10200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>28100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>3400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>4400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>11400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>9700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>7400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>6600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>6100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>7500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-2600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,55 +2297,61 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3">
         <v>-800</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-2300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>148100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-4900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>11800</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2255,8 +2377,14 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2457,14 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2537,174 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F32" s="3">
         <v>10200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-5200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-24500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-50200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-27900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-4500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-14400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>6900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-14600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-23100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-5200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>2800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>1500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>700</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-9400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-112400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>23500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>44300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>28500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>154400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>17100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-20900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>22000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>28100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>3400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>4400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>11400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>9700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>7400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>6600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>6100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>7500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-2600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2777,179 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-9400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-112400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>23500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>44300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>28500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>154400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>17100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-20900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>22000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>28100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>3400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>4400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>11400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>9700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>7400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>6600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>6100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>7500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-2600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2976,10 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,68 +3006,70 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>166100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>139400</v>
+      </c>
+      <c r="F41" s="3">
         <v>117800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>102900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>90000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>178500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>143300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>134200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>64400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>105500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>169800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>139500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>170700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>134200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>169800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>177900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>217600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>44000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>39300</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2908,67 +3082,73 @@
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E42" s="3">
+        <v>47500</v>
+      </c>
+      <c r="F42" s="3">
         <v>64600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>78100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>106300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>22800</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>55200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>56500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>49000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>43700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>45300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>16900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>7400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>1300</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
-      </c>
-      <c r="V42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W42" s="3">
         <v>0</v>
@@ -2982,68 +3162,74 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>94700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>126000</v>
+      </c>
+      <c r="F43" s="3">
         <v>108400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>62400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>47500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>43800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>39600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>39600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>42800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>116900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>148100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>201600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>107400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>67100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>52400</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>44600</v>
-      </c>
-      <c r="R43" s="3">
-        <v>53200</v>
       </c>
       <c r="S43" s="3">
         <v>44600</v>
       </c>
       <c r="T43" s="3">
+        <v>53200</v>
+      </c>
+      <c r="U43" s="3">
+        <v>44600</v>
+      </c>
+      <c r="V43" s="3">
         <v>38800</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3242,14 @@
       <c r="Z43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3067,11 +3259,11 @@
       <c r="E44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -3080,26 +3272,26 @@
         <v>0</v>
       </c>
       <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>7300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>7800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1900</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3112,11 +3304,11 @@
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U44" s="3">
-        <v>0</v>
-      </c>
-      <c r="V44" s="3">
-        <v>0</v>
+      <c r="U44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
@@ -3130,68 +3322,74 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>91800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>92200</v>
+      </c>
+      <c r="F45" s="3">
         <v>175700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>297600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>10600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>8200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>5900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>9100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>13700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>28200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>34900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>25800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>26900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>24000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>11300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>14400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>2600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>3000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>2500</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3204,68 +3402,74 @@
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>387900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>405100</v>
+      </c>
+      <c r="F46" s="3">
         <v>466500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>541000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>254400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>253300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>188900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>183700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>176300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>307200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>409100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>418300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>352200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>242200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>240900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>238100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>273500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>91600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>80700</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3278,68 +3482,74 @@
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>138800</v>
+      </c>
+      <c r="E47" s="3">
+        <v>102500</v>
+      </c>
+      <c r="F47" s="3">
         <v>61500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>2900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>399900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>374400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>371800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>366400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>349300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>84000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>78300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>77700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>70200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>47000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>38900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>37100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>4600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>6800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>7700</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3352,68 +3562,74 @@
       <c r="Z47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F48" s="3">
         <v>11000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>12300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>13800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>14800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>16700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>18200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>19600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>23300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>25000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>26100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>27700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>27400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>26300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>12200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>12400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>13200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>12900</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3426,68 +3642,74 @@
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>532200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>532700</v>
+      </c>
+      <c r="F49" s="3">
         <v>532900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>534000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>540800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>543700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>545200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>536900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>539500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>539000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>537700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>532400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>533900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>535100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>536100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>537000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>538000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>538700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>539600</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3500,8 +3722,14 @@
       <c r="Z49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3802,14 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,67 +3882,73 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F52" s="3">
         <v>2300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>3700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3800</v>
-      </c>
-      <c r="H52" s="3">
-        <v>3900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>4400</v>
       </c>
       <c r="J52" s="3">
         <v>3900</v>
       </c>
       <c r="K52" s="3">
+        <v>4400</v>
+      </c>
+      <c r="L52" s="3">
+        <v>3900</v>
+      </c>
+      <c r="M52" s="3">
         <v>10200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>4700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>6200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3">
         <v>700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>900</v>
-      </c>
-      <c r="R52" s="3">
-        <v>1100</v>
-      </c>
-      <c r="S52" s="3">
-        <v>1100</v>
       </c>
       <c r="T52" s="3">
         <v>1100</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
+      <c r="U52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V52" s="3">
+        <v>1100</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>3</v>
@@ -3722,8 +3962,14 @@
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,68 +4042,74 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1072300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1053800</v>
+      </c>
+      <c r="F54" s="3">
         <v>1074300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1092500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1212500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1190000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1126500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1109600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1088700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>963600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1054800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1060600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>984000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>852300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>842800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>825300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>829600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>651500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>642000</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3870,8 +4122,14 @@
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4156,10 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,68 +4186,70 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>38800</v>
+      </c>
+      <c r="F57" s="3">
         <v>47900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>38400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>36600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>43000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>32300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>25500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>26100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>28800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>66200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>57100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>41500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>32200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>23800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>18000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>23500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>21800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>21800</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4000,68 +4262,74 @@
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F58" s="3">
         <v>3300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>11400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>27100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>4000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>4500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>5400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>5200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>48400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>47800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>26500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>7000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>6400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>2300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>2600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>3100</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4074,68 +4342,74 @@
       <c r="Z58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F59" s="3">
         <v>13000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>21000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>14000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>31700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>20700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>14500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>12600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>21500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>33300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>23700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>14300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>9500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>10300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>13600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>8900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>10600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>10300</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4148,68 +4422,74 @@
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>69100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>55800</v>
+      </c>
+      <c r="F60" s="3">
         <v>64200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>70800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>77700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>78800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>57500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>45300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>43900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>54300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>147900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>128600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>82300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>48700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>40500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>34000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>34600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>35000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>35200</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4222,68 +4502,74 @@
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>800</v>
+      </c>
+      <c r="F61" s="3">
         <v>1300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>4500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>3600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>9700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>9200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>9800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>10100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>12000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>3200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>2100</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4296,68 +4582,74 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F62" s="3">
         <v>6300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>6600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>10700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>12300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>11400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>11800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>13100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>14000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>12900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>10700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>13800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>14000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>14500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>13600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>15300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>14600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>13400</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4370,8 +4662,14 @@
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4742,14 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4822,14 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,68 +4902,74 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>78700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>64500</v>
+      </c>
+      <c r="F66" s="3">
         <v>71800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>79400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>90500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>93800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>73400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>60700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>60900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>72700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>170600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>148400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>105900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>72700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>67000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>49800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>52600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>52900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>50700</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4666,8 +4982,14 @@
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +5016,10 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +5092,14 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5172,14 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5252,14 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,68 +5332,74 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>248500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>237400</v>
+      </c>
+      <c r="F72" s="3">
         <v>241700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>249200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>357900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>330700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>288600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>283300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>253800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>98000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>79600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>99500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>76000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>46500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>43000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>36400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>33100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>21700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>12700</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5064,8 +5412,14 @@
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5492,14 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5572,14 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,68 +5652,74 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>993600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>989300</v>
+      </c>
+      <c r="F76" s="3">
         <v>1002500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1013000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1122000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1096200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1053000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1048900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1027800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>890900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>884200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>912200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>878200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>779600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>775900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>775500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>777000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>598600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>591300</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5360,8 +5732,14 @@
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5812,179 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-9400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-112400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>23500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>44300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>28500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>154400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>17100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-20900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>22000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>28100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>3400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>4400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>11400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>9700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>7400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>6600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>6100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>7500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-2600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,44 +6011,46 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F83" s="3">
         <v>3600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>4600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>4900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>5100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>5000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>5900</v>
       </c>
       <c r="J83" s="3">
         <v>5000</v>
       </c>
       <c r="K83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="L83" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M83" s="3">
         <v>4800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>4700</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5668,18 +6066,18 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V83" s="3">
         <v>3400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>16600</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5689,8 +6087,14 @@
       <c r="Z83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +6167,14 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6247,14 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6327,14 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6407,14 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,71 +6487,77 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F89" s="3">
         <v>13500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>16500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>6300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>7300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>17500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-95600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>120000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>51400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-20000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-17500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-16000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>9100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>12100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>6800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>10800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>4100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>11700</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
@@ -6133,8 +6567,14 @@
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,44 +6601,46 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>-2500</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
         <v>100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1400</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6214,18 +6656,18 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V91" s="3">
         <v>-1300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-3500</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6235,8 +6677,14 @@
       <c r="Z91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6757,14 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,71 +6837,77 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>28600</v>
+      </c>
+      <c r="F94" s="3">
         <v>5800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-82700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>31500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>3000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>60200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-35800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-6200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-15200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-44200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-35300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-17800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-43500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-2400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-3700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>2500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-3300</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
@@ -6457,8 +6917,14 @@
       <c r="Z94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6951,10 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +7027,14 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +7107,14 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +7187,14 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,71 +7267,77 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-4200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-2000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-2400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-8400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-23900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-63000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-5700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>32200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>90200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-8200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>169500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-1300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-1100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-10000</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6855,71 +7347,77 @@
       <c r="Z100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-100</v>
       </c>
       <c r="H101" s="3">
         <v>-400</v>
       </c>
       <c r="I101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-2300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-800</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P101" s="3">
-        <v>100</v>
       </c>
       <c r="Q101" s="3">
         <v>-200</v>
       </c>
       <c r="R101" s="3">
+        <v>100</v>
+      </c>
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U101" s="3">
         <v>-1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>700</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X101" s="3" t="s">
         <v>3</v>
       </c>
@@ -6929,71 +7427,77 @@
       <c r="Z101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>21600</v>
+      </c>
+      <c r="F102" s="3">
         <v>14900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>12900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-88500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>35200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>9100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>69800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-154000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>48600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>30300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-31200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>36500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-35700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-39800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>173600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>4700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>6100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-1000</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
@@ -7001,6 +7505,12 @@
         <v>3</v>
       </c>
       <c r="Z102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OPRA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OPRA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
   <si>
     <t>OPRA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AB7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>96400</v>
+      </c>
+      <c r="E8" s="3">
         <v>85400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>77900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>71800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>72900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>66700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>60300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>51600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>56200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>42000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>38200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>40200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>48800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>93700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>61700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>49800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>48300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>44700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>39800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>39400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>134400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>43500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>26500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>25500</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E9" s="3">
         <v>15700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>-1100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>29300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>-7300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>15000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>400</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>100</v>
       </c>
       <c r="Z9" s="3">
         <v>100</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>3</v>
+      <c r="AA9" s="3">
+        <v>100</v>
       </c>
       <c r="AB9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E10" s="3">
         <v>69700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>66100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>63800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>67400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>63400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>57600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>49400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>57300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>39100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>29500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>56100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>78700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>51600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>42000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>42600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>39200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>38400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>38700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>133100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>43100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>26400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>25400</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,26 +1222,29 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>123800</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1233,22 +1252,22 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>7300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
@@ -1256,8 +1275,8 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1269,105 +1288,111 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>3200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1700</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="E15" s="3">
         <v>3400</v>
       </c>
       <c r="F15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G15" s="3">
         <v>3600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>5100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>5000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>5900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>6000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>2900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3100</v>
-      </c>
-      <c r="U15" s="3">
-        <v>3400</v>
       </c>
       <c r="V15" s="3">
         <v>3400</v>
       </c>
       <c r="W15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="X15" s="3">
         <v>16600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>5000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>3600</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>3800</v>
       </c>
-      <c r="AA15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>84600</v>
+      </c>
+      <c r="E17" s="3">
         <v>69300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>66700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>70400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>187300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>67300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>68200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>53100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>53800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>39000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>38500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>47700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>49500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>87000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>64500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>45800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>35100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>32800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>29400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>29700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>124100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>32800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>29000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>24700</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E18" s="3">
         <v>16100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>11200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-114400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>13200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>11900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>10400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>9700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>10300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>10700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>800</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,168 +1615,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-13300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-10200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>24500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>50200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>27900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>14400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>14600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>23100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-700</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E21" s="3">
         <v>18000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-104600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>28800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>47400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>36100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>12500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>19000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-9700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>15500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>30000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>21700</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="3">
         <v>12300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>24100</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA21" s="3">
         <v>3900</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,168 +1862,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E23" s="3">
         <v>14600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-109100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>23900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>42300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>30200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>14100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-14400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>14000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>29800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>12100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>10700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>9900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>8900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>7500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>9100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>100</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E24" s="3">
         <v>5200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>200</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E26" s="3">
         <v>9400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-111600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>23500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>44300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>30800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>16300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-16000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>10200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>28100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>11400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>9700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>6600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>6100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>7500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E27" s="3">
         <v>9400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-111600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>23500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>44300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>30800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>16300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-16000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>10200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>28100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>11400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>9700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>6600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>6100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>7500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,13 +2360,16 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>3</v>
@@ -2317,12 +2377,12 @@
       <c r="F29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3">
         <v>-800</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
@@ -2330,31 +2390,31 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-2300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>148100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-4900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>11800</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E32" s="3">
         <v>1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>13300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>10200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-24500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-50200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-27900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-14400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-14600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-23100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>700</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E33" s="3">
         <v>9400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-112400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>23500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>44300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>28500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>154400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>17100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-20900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>22000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>28100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>11400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>9700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>7400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>6600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>6100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>7500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E35" s="3">
         <v>9400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-112400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>23500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>44300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>28500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>154400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>17100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-20900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>22000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>28100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>11400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>9700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>7400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>6600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>6100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>7500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AB38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,71 +3093,72 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E41" s="3">
         <v>166100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>139400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>117800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>102900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>90000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>178500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>143300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>134200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>64400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>105500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>169800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>139500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>170700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>134200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>169800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>177900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>217600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>44000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>39300</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3088,70 +3174,73 @@
       <c r="AB41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>66300</v>
+      </c>
+      <c r="E42" s="3">
         <v>35300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>47500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>64600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>78100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>106300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>22800</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>55200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>56500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>49000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>43700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>45300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>16900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>7400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1300</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
+      <c r="W42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X42" s="3">
         <v>0</v>
@@ -3168,71 +3257,74 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>131500</v>
+      </c>
+      <c r="E43" s="3">
         <v>94700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>126000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>108400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>62400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>47500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>43800</v>
-      </c>
-      <c r="J43" s="3">
-        <v>39600</v>
       </c>
       <c r="K43" s="3">
         <v>39600</v>
       </c>
       <c r="L43" s="3">
+        <v>39600</v>
+      </c>
+      <c r="M43" s="3">
         <v>42800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>116900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>148100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>201600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>107400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>67100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>52400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>44600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>53200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>44600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>38800</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3248,8 +3340,11 @@
       <c r="AB43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3265,8 +3360,8 @@
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
@@ -3278,23 +3373,23 @@
         <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
         <v>200</v>
       </c>
       <c r="N44" s="3">
+        <v>200</v>
+      </c>
+      <c r="O44" s="3">
         <v>7300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1900</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3310,8 +3405,8 @@
       <c r="V44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W44" s="3">
-        <v>0</v>
+      <c r="W44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X44" s="3">
         <v>0</v>
@@ -3328,71 +3423,74 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E45" s="3">
         <v>91800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>92200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>175700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>297600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>28200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>34900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>25800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>26900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>24000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>11300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>14400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2500</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3408,71 +3506,74 @@
       <c r="AB45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>340200</v>
+      </c>
+      <c r="E46" s="3">
         <v>387900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>405100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>466500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>541000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>254400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>253300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>188900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>183700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>176300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>307200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>409100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>418300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>352200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>242200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>240900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>238100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>273500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>91600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>80700</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3488,71 +3589,74 @@
       <c r="AB46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>78900</v>
+      </c>
+      <c r="E47" s="3">
         <v>138800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>102500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>61500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>399900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>374400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>371800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>366400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>349300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>84000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>78300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>77700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>70200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>47000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>38900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>37100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>6800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>7700</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3568,71 +3672,74 @@
       <c r="AB47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11300</v>
+        <v>14600</v>
       </c>
       <c r="E48" s="3">
         <v>11300</v>
       </c>
       <c r="F48" s="3">
+        <v>11300</v>
+      </c>
+      <c r="G48" s="3">
         <v>11000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>16700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>23300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>25000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>26100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>27700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>27400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>26300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>13200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12900</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3648,71 +3755,74 @@
       <c r="AB48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>529400</v>
+      </c>
+      <c r="E49" s="3">
         <v>532200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>532700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>532900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>534000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>540800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>543700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>545200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>536900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>539500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>539000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>537700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>532400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>533900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>535100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>536100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>537000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>538000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>538700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>539600</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3728,8 +3838,11 @@
       <c r="AB49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,61 +4004,64 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="3">
         <v>2100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2200</v>
-      </c>
-      <c r="F52" s="3">
-        <v>2300</v>
       </c>
       <c r="G52" s="3">
         <v>2300</v>
       </c>
       <c r="H52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I52" s="3">
         <v>3700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6200</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3">
         <v>700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>900</v>
-      </c>
-      <c r="T52" s="3">
-        <v>1100</v>
       </c>
       <c r="U52" s="3">
         <v>1100</v>
@@ -3950,8 +4069,8 @@
       <c r="V52" s="3">
         <v>1100</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>3</v>
+      <c r="W52" s="3">
+        <v>1100</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>3</v>
@@ -3968,8 +4087,11 @@
       <c r="AB52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,71 +4170,74 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>964700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1072300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1053800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1074300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1092500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1212500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1190000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1126500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1109600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1088700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>963600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1054800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1060600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>984000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>852300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>842800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>825300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>829600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>651500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>642000</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4128,8 +4253,11 @@
       <c r="AB54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,70 +4317,71 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E57" s="3">
         <v>41000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>38800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>47900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>38400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>36600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>43000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>32300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>25500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>26100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>28800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>66200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>57100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>41500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>32200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>23800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>18000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>23500</v>
-      </c>
-      <c r="U57" s="3">
-        <v>21800</v>
       </c>
       <c r="V57" s="3">
         <v>21800</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>3</v>
+      <c r="W57" s="3">
+        <v>21800</v>
       </c>
       <c r="X57" s="3" t="s">
         <v>3</v>
@@ -4268,71 +4398,74 @@
       <c r="AB57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E58" s="3">
         <v>3400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>27100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>48400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>47800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>26500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3100</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4348,71 +4481,74 @@
       <c r="AB58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E59" s="3">
         <v>24700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>21000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>31700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>20700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>21500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>33300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>23700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>10600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>10300</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4428,71 +4564,74 @@
       <c r="AB59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E60" s="3">
         <v>69100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>55800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>64200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>70800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>77700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>78800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>57500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>45300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>43900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>54300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>147900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>128600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>82300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>48700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>40500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>34000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>34600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>35000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>35200</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4508,71 +4647,74 @@
       <c r="AB60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E61" s="3">
         <v>600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>12000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2100</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4588,71 +4730,74 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E62" s="3">
         <v>9000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>12300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>11400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>14000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>14500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>15300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>14600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>13400</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4668,8 +4813,11 @@
       <c r="AB62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,71 +5062,74 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>76500</v>
+      </c>
+      <c r="E66" s="3">
         <v>78700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>64500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>71800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>79400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>90500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>93800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>73400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>60700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>60900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>72700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>170600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>148400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>105900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>72700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>67000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>49800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>52600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>52900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>50700</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4988,8 +5145,11 @@
       <c r="AB66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,71 +5508,74 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>273300</v>
+      </c>
+      <c r="E72" s="3">
         <v>248500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>237400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>241700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>249200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>357900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>330700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>288600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>283300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>253800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>98000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>79600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>99500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>76000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>46500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>43000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>36400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>33100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>21700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>12700</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5418,8 +5591,11 @@
       <c r="AB72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,71 +5840,74 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>888200</v>
+      </c>
+      <c r="E76" s="3">
         <v>993600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>989300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1002500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1013000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1122000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1096200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1053000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1048900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1027800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>890900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>884200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>912200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>878200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>779600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>775900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>775500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>777000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>598600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>591300</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5738,8 +5923,11 @@
       <c r="AB76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AB80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E81" s="3">
         <v>9400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-112400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>23500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>44300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>28500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>154400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>17100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-20900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>22000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>28100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>11400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>9700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>7400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>6600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>6100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>7500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,47 +6210,48 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="E83" s="3">
         <v>3400</v>
       </c>
       <c r="F83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G83" s="3">
         <v>3600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4700</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
@@ -6072,15 +6270,15 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W83" s="3">
         <v>3400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>16600</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y83" s="3" t="s">
         <v>3</v>
       </c>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,74 +6706,77 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E89" s="3">
         <v>18000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>13500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>16500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>17500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-95600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>120000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>51400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-20000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-17500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-16000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>9100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>12100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>6800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>10800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>11700</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
@@ -6573,8 +6789,11 @@
       <c r="AB89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,19 +6822,20 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2500</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
@@ -6624,26 +6844,26 @@
         <v>-100</v>
       </c>
       <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
         <v>100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1400</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6662,15 +6882,15 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W91" s="3">
         <v>-1300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3500</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6683,8 +6903,11 @@
       <c r="AB91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,74 +7069,77 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E94" s="3">
         <v>14800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>28600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>5800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-82700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>31500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>3000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>60200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-35800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-44200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-35300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-17800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-43500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>2500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3300</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
@@ -6923,8 +7152,11 @@
       <c r="AB94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,74 +7515,77 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-133000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-8000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-23900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-63000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>32200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>90200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-7500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>169500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-10000</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
@@ -7353,74 +7598,77 @@
       <c r="AB100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
-      </c>
-      <c r="S101" s="3">
-        <v>-200</v>
       </c>
       <c r="T101" s="3">
         <v>-200</v>
       </c>
       <c r="U101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V101" s="3">
         <v>-1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>700</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y101" s="3" t="s">
         <v>3</v>
       </c>
@@ -7433,74 +7681,77 @@
       <c r="AB101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-113700</v>
+      </c>
+      <c r="E102" s="3">
         <v>26700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>21600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>14900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>12900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-88500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>35200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>9100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>69800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-154000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>48600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>30300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-31200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>36500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-35700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-8000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-39800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>173600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>6100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1000</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
@@ -7511,6 +7762,9 @@
         <v>3</v>
       </c>
       <c r="AB102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OPRA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OPRA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
   <si>
     <t>OPRA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AC7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>87200</v>
+      </c>
+      <c r="E8" s="3">
         <v>96400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>85400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>77900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>71800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>72900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>66700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>60300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>51600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>56200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>42000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>38200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>40200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>48800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>93700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>61700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>49800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>48300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>44700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>39800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>39400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>134400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>43500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>26500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>25500</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E9" s="3">
         <v>19000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>-1100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>29300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>15000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>400</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>100</v>
       </c>
       <c r="AA9" s="3">
         <v>100</v>
       </c>
-      <c r="AB9" s="3" t="s">
-        <v>3</v>
+      <c r="AB9" s="3">
+        <v>100</v>
       </c>
       <c r="AC9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>70300</v>
+      </c>
+      <c r="E10" s="3">
         <v>77400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>69700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>66100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>63800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>67400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>63400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>57600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>49400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>57300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>39100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>29500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>10900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>56100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>78700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>51600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>42000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>42600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>39200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>38400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>38700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>133100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>43100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>26400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>25400</v>
       </c>
-      <c r="AB10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,29 +1242,32 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>123800</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1255,22 +1275,22 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>7300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
@@ -1278,8 +1298,8 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1291,108 +1311,114 @@
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>3200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>900</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>1700</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E15" s="3">
         <v>3500</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3400</v>
       </c>
       <c r="F15" s="3">
         <v>3400</v>
       </c>
       <c r="G15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H15" s="3">
         <v>3600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>5100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>5000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>5900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>6000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>2900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3100</v>
-      </c>
-      <c r="V15" s="3">
-        <v>3400</v>
       </c>
       <c r="W15" s="3">
         <v>3400</v>
       </c>
       <c r="X15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Y15" s="3">
         <v>16600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>5000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>3600</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>3800</v>
       </c>
-      <c r="AB15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>84600</v>
+        <v>73200</v>
       </c>
       <c r="E17" s="3">
+        <v>83400</v>
+      </c>
+      <c r="F17" s="3">
         <v>69300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>66700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>70400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>187300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>67300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>68200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>53100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>53800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>39000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>38500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>47700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>49500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>87000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>64500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>45800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>35100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>32800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>29400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>29700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>124100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>32800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>29000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>24700</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11800</v>
+        <v>14000</v>
       </c>
       <c r="E18" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F18" s="3">
         <v>16100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>11200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-114400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>13200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>11900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>10400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>9700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>10300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>10700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>800</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,174 +1649,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8400</v>
+        <v>4800</v>
       </c>
       <c r="E20" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-13300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-10200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>24500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>50200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>27900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>14400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>14600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>23100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-700</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E21" s="3">
         <v>23700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>18000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-104600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>28800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>47400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>36100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>12500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>19000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-9700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>15500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>30000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>8800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>21700</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X21" s="3">
         <v>12300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>24100</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB21" s="3">
         <v>3900</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1865,174 +1905,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E23" s="3">
         <v>20200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-109100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>23900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>42300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>30200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>14100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-14400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>14000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>29800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>12100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>10700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>9900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>8900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>7500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>9100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>100</v>
       </c>
-      <c r="AB23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>200</v>
       </c>
-      <c r="AB24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E26" s="3">
         <v>20900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-111600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>23500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>44300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>30800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>16300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-16000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>10200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>28100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>11400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>9700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>7400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>6600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>6100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>7500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-200</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E27" s="3">
         <v>20900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-111600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>23500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>44300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>30800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>16300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-16000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>10200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>28100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>11400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>9700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>7400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>6600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>6100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>7500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-200</v>
       </c>
-      <c r="AB27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,16 +2421,19 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>3</v>
@@ -2380,12 +2441,12 @@
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3">
         <v>-800</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
@@ -2393,31 +2454,31 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-2300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>148100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-4900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>11800</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8400</v>
+        <v>-4800</v>
       </c>
       <c r="E32" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F32" s="3">
         <v>1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>13300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>10200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-24500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-50200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-27900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-14400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-23100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>700</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E33" s="3">
         <v>20900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-112400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>23500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>44300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>28500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>154400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>17100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-20900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>22000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>28100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>11400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>9700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>7400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>6600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>6100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>7500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-200</v>
       </c>
-      <c r="AB33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E35" s="3">
         <v>20900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-112400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>23500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>44300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>28500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>154400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>17100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-20900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>22000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>28100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>11400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>9700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>7400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>6600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>6100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>7500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-200</v>
       </c>
-      <c r="AB35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AC38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,74 +3180,75 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>84800</v>
+      </c>
+      <c r="E41" s="3">
         <v>52400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>166100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>139400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>117800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>102900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>90000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>178500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>143300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>134200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>64400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>105500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>169800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>139500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>170700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>134200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>169800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>177900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>217600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>44000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>39300</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3177,73 +3264,76 @@
       <c r="AC41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>66300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>35300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>47500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>64600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>78100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>106300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>22800</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>55200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>56500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>49000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>43700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>45300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>16900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>7400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1300</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
+      <c r="X42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y42" s="3">
         <v>0</v>
@@ -3260,74 +3350,77 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>85500</v>
+      </c>
+      <c r="E43" s="3">
         <v>131500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>94700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>126000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>108400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>62400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>47500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>43800</v>
-      </c>
-      <c r="K43" s="3">
-        <v>39600</v>
       </c>
       <c r="L43" s="3">
         <v>39600</v>
       </c>
       <c r="M43" s="3">
+        <v>39600</v>
+      </c>
+      <c r="N43" s="3">
         <v>42800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>116900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>148100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>201600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>107400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>67100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>52400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>44600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>53200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>44600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>38800</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3343,8 +3436,11 @@
       <c r="AC43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3363,8 +3459,8 @@
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -3376,23 +3472,23 @@
         <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
         <v>200</v>
       </c>
       <c r="O44" s="3">
+        <v>200</v>
+      </c>
+      <c r="P44" s="3">
         <v>7300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1900</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3408,8 +3504,8 @@
       <c r="W44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X44" s="3">
-        <v>0</v>
+      <c r="X44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y44" s="3">
         <v>0</v>
@@ -3426,74 +3522,77 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>167400</v>
+      </c>
+      <c r="E45" s="3">
         <v>90000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>91800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>92200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>175700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>297600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>13700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>28200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>34900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>25800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>26900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>24000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>11300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>14400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2500</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3509,74 +3608,77 @@
       <c r="AC45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>337800</v>
+      </c>
+      <c r="E46" s="3">
         <v>340200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>387900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>405100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>466500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>541000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>254400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>253300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>188900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>183700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>176300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>307200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>409100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>418300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>352200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>242200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>240900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>238100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>273500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>91600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>80700</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3592,74 +3694,77 @@
       <c r="AC46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E47" s="3">
         <v>78900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>138800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>102500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>61500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>399900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>374400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>371800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>366400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>349300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>84000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>78300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>77700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>70200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>47000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>38900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>37100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>6800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>7700</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3675,74 +3780,77 @@
       <c r="AC47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E48" s="3">
         <v>14600</v>
-      </c>
-      <c r="E48" s="3">
-        <v>11300</v>
       </c>
       <c r="F48" s="3">
         <v>11300</v>
       </c>
       <c r="G48" s="3">
+        <v>11300</v>
+      </c>
+      <c r="H48" s="3">
         <v>11000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>23300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>25000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>26100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>27700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>27400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>26300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>13200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12900</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3758,74 +3866,77 @@
       <c r="AC48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>529000</v>
+      </c>
+      <c r="E49" s="3">
         <v>529400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>532200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>532700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>532900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>534000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>540800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>543700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>545200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>536900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>539500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>539000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>537700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>532400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>533900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>535100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>536100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>537000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>538000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>538700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>539600</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3841,8 +3952,11 @@
       <c r="AC49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4016,55 +4136,55 @@
         <v>1500</v>
       </c>
       <c r="E52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F52" s="3">
         <v>2100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2200</v>
-      </c>
-      <c r="G52" s="3">
-        <v>2300</v>
       </c>
       <c r="H52" s="3">
         <v>2300</v>
       </c>
       <c r="I52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J52" s="3">
         <v>3700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6200</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3">
         <v>700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>900</v>
-      </c>
-      <c r="U52" s="3">
-        <v>1100</v>
       </c>
       <c r="V52" s="3">
         <v>1100</v>
@@ -4072,8 +4192,8 @@
       <c r="W52" s="3">
         <v>1100</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>3</v>
+      <c r="X52" s="3">
+        <v>1100</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>3</v>
@@ -4090,8 +4210,11 @@
       <c r="AC52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,74 +4296,77 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>911600</v>
+      </c>
+      <c r="E54" s="3">
         <v>964700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1072300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1053800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1074300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1092500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1212500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1190000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1126500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1109600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1088700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>963600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1054800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1060600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>984000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>852300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>842800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>825300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>829600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>651500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>642000</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4256,8 +4382,11 @@
       <c r="AC54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,73 +4448,74 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E57" s="3">
         <v>46900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>41000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>38800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>47900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>38400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>36600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>43000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>32300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>25500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>26100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>28800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>66200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>57100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>41500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>32200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>23800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>18000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>23500</v>
-      </c>
-      <c r="V57" s="3">
-        <v>21800</v>
       </c>
       <c r="W57" s="3">
         <v>21800</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>3</v>
+      <c r="X57" s="3">
+        <v>21800</v>
       </c>
       <c r="Y57" s="3" t="s">
         <v>3</v>
@@ -4401,74 +4532,77 @@
       <c r="AC57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E58" s="3">
         <v>3100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>27100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>48400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>47800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>26500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3100</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4484,74 +4618,77 @@
       <c r="AC58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E59" s="3">
         <v>14300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>24700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>21000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>31700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>20700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>21500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>33300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>23700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>10600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>10300</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4567,74 +4704,77 @@
       <c r="AC59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>65500</v>
+      </c>
+      <c r="E60" s="3">
         <v>64300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>69100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>55800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>64200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>70800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>77700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>78800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>57500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>45300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>43900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>54300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>147900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>128600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>82300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>48700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>40500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>34000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>34600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>35000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>35200</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4650,74 +4790,77 @@
       <c r="AC60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E61" s="3">
         <v>4700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>12000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2100</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
@@ -4733,74 +4876,77 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E62" s="3">
         <v>7400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>12300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>12900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>14000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>14500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>15300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>14600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>13400</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4816,8 +4962,11 @@
       <c r="AC62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,74 +5220,77 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E66" s="3">
         <v>76500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>78700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>64500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>71800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>79400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>90500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>93800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>73400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>60700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>60900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>72700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>170600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>148400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>105900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>72700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>67000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>49800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>52600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>52900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>50700</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
@@ -5148,8 +5306,11 @@
       <c r="AC66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,74 +5682,77 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>220900</v>
+      </c>
+      <c r="E72" s="3">
         <v>273300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>248500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>237400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>241700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>249200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>357900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>330700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>288600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>283300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>253800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>98000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>79600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>99500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>76000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>46500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>43000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>36400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>33100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>21700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>12700</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5594,8 +5768,11 @@
       <c r="AC72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,74 +6026,77 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>833500</v>
+      </c>
+      <c r="E76" s="3">
         <v>888200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>993600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>989300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1002500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1013000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1122000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1096200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1053000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1048900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1027800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>890900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>884200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>912200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>878200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>779600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>775900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>775500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>777000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>598600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>591300</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5926,8 +6112,11 @@
       <c r="AC76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AC80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E81" s="3">
         <v>20900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-112400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>23500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>44300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>28500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>154400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>17100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-20900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>22000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>28100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>11400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>9700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>7400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>6600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>6100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>7500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-200</v>
       </c>
-      <c r="AB81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,50 +6409,51 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E83" s="3">
         <v>3500</v>
-      </c>
-      <c r="E83" s="3">
-        <v>3400</v>
       </c>
       <c r="F83" s="3">
         <v>3400</v>
       </c>
       <c r="G83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H83" s="3">
         <v>3600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4700</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
@@ -6273,15 +6472,15 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X83" s="3">
         <v>3400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>16600</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z83" s="3" t="s">
         <v>3</v>
       </c>
@@ -6294,8 +6493,11 @@
       <c r="AC83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,77 +6923,80 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E89" s="3">
         <v>23500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>18000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>13500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>16500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>17500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-95600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>120000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>51400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-17500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-16000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>9100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>12100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>6800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>10800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>11700</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
@@ -6792,8 +7009,11 @@
       <c r="AC89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,22 +7043,23 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
@@ -6847,26 +7068,26 @@
         <v>-100</v>
       </c>
       <c r="J91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K91" s="3">
         <v>100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1400</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6885,15 +7106,15 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X91" s="3">
         <v>-1300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6906,8 +7127,11 @@
       <c r="AC91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,77 +7299,80 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>14800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>28600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>5800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-82700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>31500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>60200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-35800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-44200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-35300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-17800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-43500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>2500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z94" s="3" t="s">
         <v>3</v>
       </c>
@@ -7155,8 +7385,11 @@
       <c r="AC94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,13 +7419,14 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-12300</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,77 +7761,80 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-133000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-23900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-63000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>32200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>90200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-7500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-8200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>169500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-10000</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z100" s="3" t="s">
         <v>3</v>
       </c>
@@ -7601,77 +7847,80 @@
       <c r="AC100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
-      </c>
-      <c r="T101" s="3">
-        <v>-200</v>
       </c>
       <c r="U101" s="3">
         <v>-200</v>
       </c>
       <c r="V101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W101" s="3">
         <v>-1000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>700</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z101" s="3" t="s">
         <v>3</v>
       </c>
@@ -7684,77 +7933,80 @@
       <c r="AC101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-113700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>26700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>21600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>14900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>12900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-88500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>35200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>69800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-154000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>48600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>30300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-31200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>36500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-35700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-8000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-39800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>173600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>6100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
@@ -7765,6 +8017,9 @@
         <v>3</v>
       </c>
       <c r="AC102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OPRA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OPRA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
   <si>
     <t>OPRA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AD7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>94200</v>
+      </c>
+      <c r="E8" s="3">
         <v>87200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>96400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>85400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>77900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>71800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>72900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>66700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>60300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>51600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>56200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>42000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>38200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>40200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>48800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>93700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>61700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>49800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>48300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>44700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>39800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>39400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>134400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>43500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>26500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>25500</v>
       </c>
-      <c r="AC8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E9" s="3">
         <v>16900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>19000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>-1100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>29300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>-7300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>15000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>400</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>100</v>
       </c>
       <c r="AB9" s="3">
         <v>100</v>
       </c>
-      <c r="AC9" s="3" t="s">
-        <v>3</v>
+      <c r="AC9" s="3">
+        <v>100</v>
       </c>
       <c r="AD9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>71600</v>
+      </c>
+      <c r="E10" s="3">
         <v>70300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>77400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>69700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>66100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>63800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>67400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>63400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>57600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>49400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>57300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>39100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>29500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>10900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>56100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>78700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>51600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>42000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>42600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>39200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>38400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>38700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>133100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>43100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>26400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>25400</v>
       </c>
-      <c r="AC10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1254,23 +1274,23 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>2000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>123800</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1278,22 +1298,22 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>7300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
@@ -1301,8 +1321,8 @@
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1314,25 +1334,28 @@
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>3200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>900</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>400</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>1700</v>
       </c>
-      <c r="AC14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,85 +1363,88 @@
         <v>3400</v>
       </c>
       <c r="E15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F15" s="3">
         <v>3500</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3400</v>
       </c>
       <c r="G15" s="3">
         <v>3400</v>
       </c>
       <c r="H15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I15" s="3">
         <v>3600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>5100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>5000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>6000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>4100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>2900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3100</v>
-      </c>
-      <c r="W15" s="3">
-        <v>3400</v>
       </c>
       <c r="X15" s="3">
         <v>3400</v>
       </c>
       <c r="Y15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Z15" s="3">
         <v>16600</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>5000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>3600</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>3800</v>
       </c>
-      <c r="AC15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>81700</v>
+      </c>
+      <c r="E17" s="3">
         <v>73200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>83400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>69300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>66700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>70400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>187300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>67300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>68200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>53100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>53800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>39000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>38500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>47700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>49500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>87000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>64500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>45800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>35100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>32800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>29400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>29700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>124100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>32800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>29000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>24700</v>
       </c>
-      <c r="AC17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E18" s="3">
         <v>14000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>13000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>16100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>11200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-114400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>13200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>11900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>10400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>9700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>10300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>10700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>800</v>
       </c>
-      <c r="AC18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,180 +1683,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E20" s="3">
         <v>4800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-13300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-10200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>24500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>50200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>27900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>14400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>14600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>23100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-700</v>
       </c>
-      <c r="AC20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E21" s="3">
         <v>22100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>23700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>18000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-104600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>28800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>47400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>36100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>12500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>19000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>15500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>30000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>8800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>21700</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="3">
         <v>12300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>24100</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC21" s="3">
         <v>3900</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,180 +1948,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E23" s="3">
         <v>18700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>20200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-109100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>23900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>42300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>30200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>14100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>14000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>29800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>12100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>10700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>9900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>8900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>7500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>9100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>100</v>
       </c>
-      <c r="AC23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>3300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>200</v>
       </c>
-      <c r="AC24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E26" s="3">
         <v>15500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>20900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-111600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>23500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>44300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>30800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>16300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>10200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>28100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>11400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>9700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>7400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>6600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>6100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>7500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-200</v>
       </c>
-      <c r="AC26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E27" s="3">
         <v>15500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>20900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-111600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>23500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>44300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>30800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>16300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>10200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>28100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>11400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>9700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>7400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>6600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>6100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>7500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-200</v>
       </c>
-      <c r="AC27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,19 +2482,22 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -2444,12 +2505,12 @@
       <c r="H29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3">
         <v>-800</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
@@ -2457,31 +2518,31 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-2300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>148100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>11800</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>13300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>10200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-24500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-50200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-27900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-14400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-14600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-23100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>2800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>700</v>
       </c>
-      <c r="AC32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E33" s="3">
         <v>15500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>20900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-112400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>23500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>44300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>28500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>154400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>17100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-20900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>22000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>28100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>11400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>9700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>7400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>6600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>6100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>7500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-200</v>
       </c>
-      <c r="AC33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E35" s="3">
         <v>15500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>20900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-112400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>23500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>44300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>28500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>154400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>17100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-20900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>22000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>28100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>11400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>9700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>7400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>6600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>6100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>7500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-200</v>
       </c>
-      <c r="AC35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AD38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,77 +3267,78 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>98200</v>
+      </c>
+      <c r="E41" s="3">
         <v>84800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>52400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>166100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>139400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>117800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>102900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>90000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>178500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>143300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>134200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>64400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>105500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>169800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>139500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>170700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>134200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>169800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>177900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>217600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>44000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>39300</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3267,8 +3354,11 @@
       <c r="AD41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3276,67 +3366,67 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>66300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>35300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>47500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>64600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>78100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>106300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>22800</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>55200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>56500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>49000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>43700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>45300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>16900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>7400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1300</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y42" s="3">
-        <v>0</v>
+      <c r="Y42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z42" s="3">
         <v>0</v>
@@ -3353,77 +3443,80 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>84700</v>
+      </c>
+      <c r="E43" s="3">
         <v>85500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>131500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>94700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>126000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>108400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>62400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>47500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>43800</v>
-      </c>
-      <c r="L43" s="3">
-        <v>39600</v>
       </c>
       <c r="M43" s="3">
         <v>39600</v>
       </c>
       <c r="N43" s="3">
+        <v>39600</v>
+      </c>
+      <c r="O43" s="3">
         <v>42800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>116900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>148100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>201600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>107400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>67100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>52400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>44600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>53200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>44600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>38800</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3462,8 +3558,8 @@
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -3475,23 +3571,23 @@
         <v>0</v>
       </c>
       <c r="N44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
         <v>200</v>
       </c>
       <c r="P44" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q44" s="3">
         <v>7300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1900</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3507,8 +3603,8 @@
       <c r="X44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y44" s="3">
-        <v>0</v>
+      <c r="Y44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z44" s="3">
         <v>0</v>
@@ -3525,77 +3621,80 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>171700</v>
+      </c>
+      <c r="E45" s="3">
         <v>167400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>90000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>91800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>92200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>175700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>297600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>28200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>34900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>25800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>26900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>24000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>11300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>14400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2500</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3611,77 +3710,80 @@
       <c r="AD45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>354500</v>
+      </c>
+      <c r="E46" s="3">
         <v>337800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>340200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>387900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>405100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>466500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>541000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>254400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>253300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>188900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>183700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>176300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>307200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>409100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>418300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>352200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>242200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>240900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>238100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>273500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>91600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>80700</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3697,77 +3799,80 @@
       <c r="AD46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E47" s="3">
         <v>30100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>78900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>138800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>102500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>61500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>399900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>374400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>371800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>366400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>349300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>84000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>78300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>77700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>70200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>47000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>38900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>37100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>4600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>6800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>7700</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3783,77 +3888,80 @@
       <c r="AD47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E48" s="3">
         <v>13200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14600</v>
-      </c>
-      <c r="F48" s="3">
-        <v>11300</v>
       </c>
       <c r="G48" s="3">
         <v>11300</v>
       </c>
       <c r="H48" s="3">
+        <v>11300</v>
+      </c>
+      <c r="I48" s="3">
         <v>11000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>23300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>25000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>26100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>27700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>27400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>26300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>13200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12900</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,77 +3977,80 @@
       <c r="AD48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>528600</v>
+      </c>
+      <c r="E49" s="3">
         <v>529000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>529400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>532200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>532700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>532900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>534000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>540800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>543700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>545200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>536900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>539500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>539000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>537700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>532400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>533900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>535100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>536100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>537000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>538000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>538700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>539600</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,67 +4244,70 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E52" s="3">
         <v>1500</v>
       </c>
       <c r="F52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G52" s="3">
         <v>2100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2200</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2300</v>
       </c>
       <c r="I52" s="3">
         <v>2300</v>
       </c>
       <c r="J52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K52" s="3">
         <v>3700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6200</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="3">
         <v>700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>900</v>
-      </c>
-      <c r="V52" s="3">
-        <v>1100</v>
       </c>
       <c r="W52" s="3">
         <v>1100</v>
@@ -4195,8 +4315,8 @@
       <c r="X52" s="3">
         <v>1100</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>3</v>
+      <c r="Y52" s="3">
+        <v>1100</v>
       </c>
       <c r="Z52" s="3" t="s">
         <v>3</v>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,77 +4422,80 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>908500</v>
+      </c>
+      <c r="E54" s="3">
         <v>911600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>964700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1072300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1053800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1074300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1092500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1212500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1190000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1126500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1109600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1088700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>963600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1054800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1060600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>984000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>852300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>842800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>825300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>829600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>651500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>642000</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4385,8 +4511,11 @@
       <c r="AD54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,76 +4579,77 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E57" s="3">
         <v>42900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>46900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>41000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>38800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>47900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>38400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>36600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>43000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>32300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>25500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>26100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>28800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>66200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>57100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>41500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>32200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>23800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>18000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>23500</v>
-      </c>
-      <c r="W57" s="3">
-        <v>21800</v>
       </c>
       <c r="X57" s="3">
         <v>21800</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>3</v>
+      <c r="Y57" s="3">
+        <v>21800</v>
       </c>
       <c r="Z57" s="3" t="s">
         <v>3</v>
@@ -4535,77 +4666,80 @@
       <c r="AD57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E58" s="3">
         <v>2500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>11400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>27100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>48400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>47800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>26500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3100</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4621,77 +4755,80 @@
       <c r="AD58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E59" s="3">
         <v>20100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>24700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>21000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>31700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>20700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>21500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>33300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>23700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>10300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>13600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>10600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>10300</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4707,77 +4844,80 @@
       <c r="AD59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>82500</v>
+      </c>
+      <c r="E60" s="3">
         <v>65500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>64300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>69100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>55800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>64200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>70800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>77700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>78800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>57500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>45300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>43900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>54300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>147900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>128600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>82300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>48700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>40500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>34000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>34600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>35000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>35200</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4793,77 +4933,80 @@
       <c r="AD60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E61" s="3">
         <v>4500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>12000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2100</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
@@ -4879,77 +5022,80 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E62" s="3">
         <v>8100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>12900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>14000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>14500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>13600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>15300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>14600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>13400</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,77 +5378,80 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>92100</v>
+      </c>
+      <c r="E66" s="3">
         <v>78100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>76500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>78700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>64500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>71800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>79400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>90500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>93800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>73400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>60700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>60900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>72700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>170600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>148400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>105900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>72700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>67000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>49800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>52600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>52900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>50700</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
@@ -5309,8 +5467,11 @@
       <c r="AD66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,77 +5856,80 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>204800</v>
+      </c>
+      <c r="E72" s="3">
         <v>220900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>273300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>248500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>237400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>241700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>249200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>357900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>330700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>288600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>283300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>253800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>98000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>79600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>99500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>76000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>46500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>43000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>36400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>33100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>21700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>12700</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5771,8 +5945,11 @@
       <c r="AD72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,77 +6212,80 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>816500</v>
+      </c>
+      <c r="E76" s="3">
         <v>833500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>888200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>993600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>989300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1002500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1013000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1122000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1096200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1053000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1048900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1027800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>890900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>884200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>912200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>878200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>779600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>775900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>775500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>777000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>598600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>591300</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
@@ -6115,8 +6301,11 @@
       <c r="AD76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AD80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E81" s="3">
         <v>15500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>20900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-112400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>23500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>44300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>28500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>154400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>17100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-20900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>22000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>28100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>11400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>9700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>7400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>6600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>6100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>7500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-200</v>
       </c>
-      <c r="AC81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6419,44 +6618,44 @@
         <v>3400</v>
       </c>
       <c r="E83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F83" s="3">
         <v>3500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>3400</v>
       </c>
       <c r="G83" s="3">
         <v>3400</v>
       </c>
       <c r="H83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I83" s="3">
         <v>3600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4700</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
@@ -6475,15 +6674,15 @@
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y83" s="3">
         <v>3400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>16600</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA83" s="3" t="s">
         <v>3</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,80 +7140,83 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E89" s="3">
         <v>25700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>23500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>18000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>13500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>16500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>17500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-95600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>120000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>51400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-20000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-17500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-16000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>9100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>12100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>6800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>10800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>4100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>11700</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA89" s="3" t="s">
         <v>3</v>
       </c>
@@ -7012,8 +7229,11 @@
       <c r="AD89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,25 +7264,26 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2500</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
@@ -7071,26 +7292,26 @@
         <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3">
         <v>100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
@@ -7109,15 +7330,15 @@
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA91" s="3" t="s">
         <v>3</v>
       </c>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,80 +7529,83 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>22600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>14800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>28600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>5800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-82700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>31500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>60200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-35800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-44200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-35300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-17800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-9700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-43500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>2500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA94" s="3" t="s">
         <v>3</v>
       </c>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,17 +7653,18 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-12300</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,80 +8007,83 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-15900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-133000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-8000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-23900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-63000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>32200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>90200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-7500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-8200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>169500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-10000</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA100" s="3" t="s">
         <v>3</v>
       </c>
@@ -7850,80 +8096,83 @@
       <c r="AD100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
-      </c>
-      <c r="U101" s="3">
-        <v>-200</v>
       </c>
       <c r="V101" s="3">
         <v>-200</v>
       </c>
       <c r="W101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X101" s="3">
         <v>-1000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>700</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA101" s="3" t="s">
         <v>3</v>
       </c>
@@ -7936,80 +8185,83 @@
       <c r="AD101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E102" s="3">
         <v>32400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-113700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>26700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>21600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>14900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>12900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-88500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>35200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>69800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-154000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>48600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>30300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-31200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>36500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-35700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-8000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-39800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>173600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>4700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>6100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
@@ -8020,6 +8272,9 @@
         <v>3</v>
       </c>
       <c r="AD102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OPRA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OPRA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
   <si>
     <t>OPRA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AE7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>102600</v>
+      </c>
+      <c r="E8" s="3">
         <v>94200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>87200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>96400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>85400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>77900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>71800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>72900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>66700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>60300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>51600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>56200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>42000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>38200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>40200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>48800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>93700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>61700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>49800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>48300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>44700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>39800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>39400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>134400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>43500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>26500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>25500</v>
       </c>
-      <c r="AD8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AE8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E9" s="3">
         <v>22600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>16900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>19000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>15700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>-1100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>29300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>-7300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>15000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>10100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>5500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>400</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>100</v>
       </c>
       <c r="AC9" s="3">
         <v>100</v>
       </c>
-      <c r="AD9" s="3" t="s">
-        <v>3</v>
+      <c r="AD9" s="3">
+        <v>100</v>
       </c>
       <c r="AE9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E10" s="3">
         <v>71600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>70300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>77400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>69700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>66100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>63800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>67400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>63400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>57600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>49400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>57300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>39100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>29500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>10900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>56100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>78700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>51600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>42000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>42600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>39200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>38400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>38700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>133100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>43100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>26400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>25400</v>
       </c>
-      <c r="AD10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AE10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,35 +1282,38 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>123800</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1301,22 +1321,22 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>7300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
@@ -1324,8 +1344,8 @@
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1337,114 +1357,120 @@
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>3200</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>900</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>400</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>1700</v>
       </c>
-      <c r="AD14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AE14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="E15" s="3">
         <v>3400</v>
       </c>
       <c r="F15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G15" s="3">
         <v>3500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3400</v>
       </c>
       <c r="H15" s="3">
         <v>3400</v>
       </c>
       <c r="I15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J15" s="3">
         <v>3600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>5100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>5900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>6000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>4300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>4100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>2900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>3100</v>
-      </c>
-      <c r="X15" s="3">
-        <v>3400</v>
       </c>
       <c r="Y15" s="3">
         <v>3400</v>
       </c>
       <c r="Z15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="AA15" s="3">
         <v>16600</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>5000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>3600</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>3800</v>
       </c>
-      <c r="AD15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AE15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>86600</v>
+      </c>
+      <c r="E17" s="3">
         <v>81700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>73200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>83400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>69300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>66700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>70400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>187300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>67300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>68200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>53100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>53800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>39000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>38500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>47700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>49500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>87000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>64500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>45800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>35100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>32800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>29400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>29700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>124100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>32800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>29000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>24700</v>
       </c>
-      <c r="AD17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AE17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E18" s="3">
         <v>12600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>14000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>13000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>16100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>11200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-114400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-7500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>13200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>11900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>10400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>9700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>10300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>10700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>800</v>
       </c>
-      <c r="AD18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AE18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,186 +1717,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>2100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-13300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-10200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>24500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>50200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>27900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>14400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>14600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>23100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-700</v>
       </c>
-      <c r="AD20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AE20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E21" s="3">
         <v>18000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>22100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>23700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>18000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-104600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>28800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>47400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>36100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>12500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>19000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-9700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>15500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>30000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>8800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>21700</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="3">
         <v>12300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>24100</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD21" s="3">
         <v>3900</v>
       </c>
-      <c r="AD21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AE21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1951,186 +1991,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E23" s="3">
         <v>14700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>18700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>20200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-109100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>23900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>42300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>30200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>14100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-14400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>14000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>29800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>12100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>10700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>9900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>8900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>7500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>9100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-1900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>100</v>
       </c>
-      <c r="AD23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AE23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>200</v>
       </c>
-      <c r="AD24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AE24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E26" s="3">
         <v>13500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>15500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>20900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-111600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>23500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>44300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>30800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>16300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-16000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>10200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>28100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>11400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>9700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>7400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>6600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>6100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>7500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-2600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-200</v>
       </c>
-      <c r="AD26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AE26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E27" s="3">
         <v>13500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>15500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>20900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-111600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>23500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>44300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>30800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>16300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-16000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>10200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>28100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>11400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>9700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>7400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>6600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>6100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>7500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-2600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-200</v>
       </c>
-      <c r="AD27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AE27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2496,11 +2557,11 @@
       <c r="E29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -2508,12 +2569,12 @@
       <c r="I29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" s="3">
         <v>-800</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
@@ -2521,31 +2582,31 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-2300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>148100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-4900</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>11800</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>13300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>10200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-24500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-50200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-27900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-14600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-23100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>700</v>
       </c>
-      <c r="AD32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AE32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E33" s="3">
         <v>13500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>15500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>20900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-112400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>23500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>44300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>28500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>154400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>17100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-20900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>22000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>28100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>11400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>9700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>7400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>6600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>6100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>7500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-2600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-200</v>
       </c>
-      <c r="AD33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AE33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E35" s="3">
         <v>13500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>15500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>20900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-112400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>23500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>44300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>28500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>154400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>17100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-20900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>22000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>28100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>11400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>9700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>7400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>6600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>6100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>7500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-2600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-200</v>
       </c>
-      <c r="AD35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AE35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AE38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,80 +3354,81 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E41" s="3">
         <v>98200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>84800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>52400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>166100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>139400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>117800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>102900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>90000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>178500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>143300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>134200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>64400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>105500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>169800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>139500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>170700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>134200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>169800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>177900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>217600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>44000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>39300</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3357,8 +3444,11 @@
       <c r="AE41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3369,67 +3459,67 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>66300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>35300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>47500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>64600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>78100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>106300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>22800</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>55200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>56500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>49000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>43700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>45300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>16900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>7400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1300</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z42" s="3">
-        <v>0</v>
+      <c r="Z42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AA42" s="3">
         <v>0</v>
@@ -3446,80 +3536,83 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>97700</v>
+      </c>
+      <c r="E43" s="3">
         <v>84700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>85500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>131500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>94700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>126000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>108400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>62400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>47500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>43800</v>
-      </c>
-      <c r="M43" s="3">
-        <v>39600</v>
       </c>
       <c r="N43" s="3">
         <v>39600</v>
       </c>
       <c r="O43" s="3">
+        <v>39600</v>
+      </c>
+      <c r="P43" s="3">
         <v>42800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>116900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>148100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>201600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>107400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>67100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>52400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>44600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>53200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>44600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>38800</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3535,34 +3628,37 @@
       <c r="AE43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -3574,23 +3670,23 @@
         <v>0</v>
       </c>
       <c r="O44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P44" s="3">
         <v>200</v>
       </c>
       <c r="Q44" s="3">
+        <v>200</v>
+      </c>
+      <c r="R44" s="3">
         <v>7300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1900</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3606,8 +3702,8 @@
       <c r="Y44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z44" s="3">
-        <v>0</v>
+      <c r="Z44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AA44" s="3">
         <v>0</v>
@@ -3624,80 +3720,83 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>173700</v>
+      </c>
+      <c r="E45" s="3">
         <v>171700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>167400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>90000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>91800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>92200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>175700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>297600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>28200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>34900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>25800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>26900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>24000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>11300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>14400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2500</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3713,80 +3812,83 @@
       <c r="AE45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>354900</v>
+      </c>
+      <c r="E46" s="3">
         <v>354500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>337800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>340200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>387900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>405100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>466500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>541000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>254400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>253300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>188900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>183700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>176300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>307200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>409100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>418300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>352200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>242200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>240900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>238100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>273500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>91600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>80700</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3802,80 +3904,83 @@
       <c r="AE46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E47" s="3">
         <v>10100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>30100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>78900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>138800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>102500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>61500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>399900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>374400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>371800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>366400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>349300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>84000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>78300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>77700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>70200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>47000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>38900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>37100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>4600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>6800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>7700</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3891,80 +3996,83 @@
       <c r="AE47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E48" s="3">
         <v>13900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>11300</v>
       </c>
       <c r="H48" s="3">
         <v>11300</v>
       </c>
       <c r="I48" s="3">
+        <v>11300</v>
+      </c>
+      <c r="J48" s="3">
         <v>11000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>19600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>23300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>25000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>26100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>27700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>27400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>26300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>13200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>12900</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3980,80 +4088,83 @@
       <c r="AE48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>527300</v>
+      </c>
+      <c r="E49" s="3">
         <v>528600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>529000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>529400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>532200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>532700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>532900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>534000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>540800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>543700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>545200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>536900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>539500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>539000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>537700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>532400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>533900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>535100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>536100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>537000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>538000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>538700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>539600</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA49" s="3" t="s">
         <v>3</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,70 +4364,73 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E52" s="3">
         <v>1400</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1500</v>
       </c>
       <c r="F52" s="3">
         <v>1500</v>
       </c>
       <c r="G52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H52" s="3">
         <v>2100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2200</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2300</v>
       </c>
       <c r="J52" s="3">
         <v>2300</v>
       </c>
       <c r="K52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L52" s="3">
         <v>3700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6200</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U52" s="3">
         <v>700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>900</v>
-      </c>
-      <c r="W52" s="3">
-        <v>1100</v>
       </c>
       <c r="X52" s="3">
         <v>1100</v>
@@ -4318,8 +4438,8 @@
       <c r="Y52" s="3">
         <v>1100</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>3</v>
+      <c r="Z52" s="3">
+        <v>1100</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>3</v>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,80 +4548,83 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>901000</v>
+      </c>
+      <c r="E54" s="3">
         <v>908500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>911600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>964700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1072300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1053800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1074300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1092500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1212500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1190000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1126500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1109600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1088700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>963600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1054800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1060600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>984000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>852300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>842800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>825300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>829600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>651500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>642000</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4514,8 +4640,11 @@
       <c r="AE54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,79 +4710,80 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E57" s="3">
         <v>47200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>42900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>46900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>41000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>38800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>47900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>38400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>36600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>43000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>32300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>25500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>26100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>28800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>66200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>57100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>41500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>32200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>23800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>18000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>23500</v>
-      </c>
-      <c r="X57" s="3">
-        <v>21800</v>
       </c>
       <c r="Y57" s="3">
         <v>21800</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>3</v>
+      <c r="Z57" s="3">
+        <v>21800</v>
       </c>
       <c r="AA57" s="3" t="s">
         <v>3</v>
@@ -4669,80 +4800,83 @@
       <c r="AE57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E58" s="3">
         <v>2800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>27100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>48400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>47800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>26500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3100</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4758,80 +4892,83 @@
       <c r="AE58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E59" s="3">
         <v>32500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>24700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>31700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>20700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>21500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>33300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>23700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>9500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>10300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>13600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>8900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>10600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>10300</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4847,80 +4984,83 @@
       <c r="AE59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>75600</v>
+      </c>
+      <c r="E60" s="3">
         <v>82500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>65500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>64300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>69100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>55800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>64200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>70800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>77700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>78800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>57500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>45300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>43900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>54300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>147900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>128600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>82300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>48700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>40500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>34000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>34600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>35000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>35200</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4936,80 +5076,83 @@
       <c r="AE60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E61" s="3">
         <v>5300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>12000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2100</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
@@ -5025,80 +5168,83 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
         <v>4300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>12900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>14000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>14500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>13600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>15300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>14600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>13400</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA62" s="3" t="s">
         <v>3</v>
       </c>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,80 +5536,83 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>81500</v>
+      </c>
+      <c r="E66" s="3">
         <v>92100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>78100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>76500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>78700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>64500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>71800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>79400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>90500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>93800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>73400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>60700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>60900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>72700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>170600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>148400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>105900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>72700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>67000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>49800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>52600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>52900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>50700</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA66" s="3" t="s">
         <v>3</v>
       </c>
@@ -5470,8 +5628,11 @@
       <c r="AE66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,80 +6030,83 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>225900</v>
+      </c>
+      <c r="E72" s="3">
         <v>204800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>220900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>273300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>248500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>237400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>241700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>249200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>357900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>330700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>288600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>283300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>253800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>98000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>79600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>99500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>76000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>46500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>43000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>36400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>33100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>21700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>12700</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5948,8 +6122,11 @@
       <c r="AE72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,80 +6398,83 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>819500</v>
+      </c>
+      <c r="E76" s="3">
         <v>816500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>833500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>888200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>993600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>989300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1002500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1013000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1122000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1096200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1053000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1048900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1027800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>890900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>884200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>912200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>878200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>779600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>775900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>775500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>777000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>598600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>591300</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA76" s="3" t="s">
         <v>3</v>
       </c>
@@ -6304,8 +6490,11 @@
       <c r="AE76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AE80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E81" s="3">
         <v>13500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>15500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>20900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-112400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>23500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>44300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>28500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>154400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>17100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-20900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>22000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>28100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>11400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>9700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>7400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>6600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>6100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>7500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-2600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-200</v>
       </c>
-      <c r="AD81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AE81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,56 +6807,57 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="E83" s="3">
         <v>3400</v>
       </c>
       <c r="F83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G83" s="3">
         <v>3500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>3400</v>
       </c>
       <c r="H83" s="3">
         <v>3400</v>
       </c>
       <c r="I83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J83" s="3">
         <v>3600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4700</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
@@ -6677,15 +6876,15 @@
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z83" s="3">
         <v>3400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>16600</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB83" s="3" t="s">
         <v>3</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,83 +7357,86 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E89" s="3">
         <v>15500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>25700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>23500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>18000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>13500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>16500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>17500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-95600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>120000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>51400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-20000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-17500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-16000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>9100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>12100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>6800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>10800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>4100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>11700</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB89" s="3" t="s">
         <v>3</v>
       </c>
@@ -7232,8 +7449,11 @@
       <c r="AE89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,28 +7485,29 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2500</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
@@ -7295,26 +7516,26 @@
         <v>-100</v>
       </c>
       <c r="L91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3">
         <v>100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1400</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
@@ -7333,15 +7554,15 @@
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB91" s="3" t="s">
         <v>3</v>
       </c>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,83 +7759,86 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>22600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>14800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>28600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>5800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-82700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>31500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>3000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>60200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-35800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-15200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-44200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-35300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-17800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-9700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-43500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>2500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB94" s="3" t="s">
         <v>3</v>
       </c>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,20 +7887,21 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-10800</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-12300</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,83 +8253,86 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-15900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-133000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-23900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-63000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>32200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>90200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-7500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-8200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>169500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-10000</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB100" s="3" t="s">
         <v>3</v>
       </c>
@@ -8099,83 +8345,86 @@
       <c r="AE100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>100</v>
-      </c>
-      <c r="V101" s="3">
-        <v>-200</v>
       </c>
       <c r="W101" s="3">
         <v>-200</v>
       </c>
       <c r="X101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>700</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB101" s="3" t="s">
         <v>3</v>
       </c>
@@ -8188,83 +8437,86 @@
       <c r="AE101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E102" s="3">
         <v>13300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>32400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-113700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>26700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>21600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>14900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>12900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-88500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>35200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>9100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>69800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-154000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>48600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>30300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-31200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>36500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-35700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-8000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-39800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>173600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>4700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>6100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB102" s="3" t="s">
         <v>3</v>
       </c>
@@ -8275,6 +8527,9 @@
         <v>3</v>
       </c>
       <c r="AE102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
